--- a/SP_Sklad/Rep/WayBill_In.xlsx
+++ b/SP_Sklad/Rep/WayBill_In.xlsx
@@ -9,7 +9,7 @@
     <sheet name="Накладна" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="range1">Накладна!$A$11:$O$14</definedName>
+    <definedName name="range1">Накладна!$A$11:$O$12</definedName>
     <definedName name="range2">#REF!</definedName>
   </definedNames>
   <calcPr/>
@@ -22,7 +22,7 @@
     <t xml:space="preserve">ПРИБУТКОВА НАКЛАДНА № </t>
   </si>
   <si>
-    <t>Пн-12</t>
+    <t>Пн-66</t>
   </si>
   <si>
     <t xml:space="preserve">від </t>
@@ -61,16 +61,10 @@
     <t>Сума без ПДВ</t>
   </si>
   <si>
-    <t>Продукція №3</t>
+    <t>Продукція №1</t>
   </si>
   <si>
     <t>кг.</t>
-  </si>
-  <si>
-    <t>Продукція №1</t>
-  </si>
-  <si>
-    <t>Продукція №2</t>
   </si>
   <si>
     <t>Всього без ПДВ</t>
@@ -822,7 +816,7 @@
         <v>2</v>
       </c>
       <c r="K2" s="4">
-        <v>42471.655276967591</v>
+        <v>42487.387230868051</v>
       </c>
       <c r="L2" s="4"/>
       <c r="M2" s="4"/>
@@ -995,7 +989,7 @@
         <v>1</v>
       </c>
       <c r="J11" s="26">
-        <v>8</v>
+        <v>40</v>
       </c>
       <c r="K11" s="27" t="e">
         <f>range1_DISCOUNTPRICE</f>
@@ -1011,145 +1005,103 @@
       <c r="N11" s="28"/>
       <c r="O11" s="28">
         <f>IF(N11&lt;&gt;1,ROUND(I11*J11,2),0)</f>
-        <v>8</v>
+        <v>40</v>
       </c>
     </row>
     <row r="12" ht="12.75" customHeight="1">
-      <c r="B12" s="22">
-        <v>2</v>
-      </c>
-      <c r="C12" s="23" t="s">
+      <c r="B12" s="29"/>
+      <c r="C12" s="30"/>
+      <c r="D12" s="30"/>
+      <c r="E12" s="30"/>
+      <c r="F12" s="31"/>
+      <c r="G12" s="31"/>
+      <c r="H12" s="31"/>
+      <c r="I12" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="D12" s="24"/>
-      <c r="E12" s="24"/>
-      <c r="F12" s="24"/>
-      <c r="G12" s="25"/>
-      <c r="H12" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="I12" s="26">
-        <v>10</v>
-      </c>
-      <c r="J12" s="26">
-        <v>15</v>
-      </c>
-      <c r="K12" s="27" t="e">
-        <f>range1_DISCOUNTPRICE</f>
+      <c r="J12" s="32"/>
+      <c r="K12" s="33" t="e">
+        <f>SUM(K11)</f>
         <v>#NAME?</v>
       </c>
-      <c r="L12" s="27">
+      <c r="L12" s="33"/>
+      <c r="M12" s="33">
+        <f>SUM(M11)</f>
         <v>0</v>
       </c>
-      <c r="M12" s="28">
-        <f>ROUND(O12*L12/100,2)</f>
-        <v>0</v>
-      </c>
-      <c r="N12" s="28"/>
-      <c r="O12" s="28">
-        <f>IF(N12&lt;&gt;1,ROUND(I12*J12,2),0)</f>
-        <v>150</v>
+      <c r="N12" s="33"/>
+      <c r="O12" s="33">
+        <f>SUM(O11)</f>
+        <v>40</v>
       </c>
     </row>
     <row r="13" ht="12.75" customHeight="1">
-      <c r="B13" s="22">
-        <v>3</v>
-      </c>
-      <c r="C13" s="23" t="s">
-        <v>17</v>
-      </c>
-      <c r="D13" s="24"/>
-      <c r="E13" s="24"/>
-      <c r="F13" s="24"/>
-      <c r="G13" s="25"/>
-      <c r="H13" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="I13" s="26">
-        <v>7</v>
-      </c>
-      <c r="J13" s="26">
-        <v>1.5600000000000001</v>
-      </c>
-      <c r="K13" s="27" t="e">
-        <f>range1_DISCOUNTPRICE</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="L13" s="27">
-        <v>0</v>
-      </c>
-      <c r="M13" s="28">
-        <f>ROUND(O13*L13/100,2)</f>
-        <v>0</v>
-      </c>
-      <c r="N13" s="28"/>
-      <c r="O13" s="28">
-        <f>IF(N13&lt;&gt;1,ROUND(I13*J13,2),0)</f>
-        <v>10.92</v>
-      </c>
-    </row>
-    <row r="14" ht="12.75" customHeight="1">
-      <c r="B14" s="29"/>
-      <c r="C14" s="30"/>
-      <c r="D14" s="30"/>
-      <c r="E14" s="30"/>
-      <c r="F14" s="31"/>
-      <c r="G14" s="31"/>
-      <c r="H14" s="31"/>
-      <c r="I14" s="32" t="s">
-        <v>18</v>
-      </c>
-      <c r="J14" s="32"/>
-      <c r="K14" s="33" t="e">
-        <f>SUM(K11:K13)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="L14" s="33"/>
-      <c r="M14" s="33">
-        <f>SUM(M11:M13)</f>
-        <v>0</v>
-      </c>
-      <c r="N14" s="33"/>
-      <c r="O14" s="33">
-        <f>SUM(O11:O13)</f>
-        <v>168.91999999999999</v>
-      </c>
-    </row>
-    <row r="15" ht="12.75" customHeight="1">
-      <c r="B15" s="34"/>
-      <c r="D15" s="34"/>
-      <c r="E15" s="34"/>
-      <c r="F15" s="35"/>
-      <c r="G15" s="35"/>
-      <c r="H15" s="35"/>
-      <c r="I15" s="32" t="str">
+      <c r="B13" s="34"/>
+      <c r="D13" s="34"/>
+      <c r="E13" s="34"/>
+      <c r="F13" s="35"/>
+      <c r="G13" s="35"/>
+      <c r="H13" s="35"/>
+      <c r="I13" s="32" t="str">
         <f>"Всього ПДВ "&amp;0&amp;"%"</f>
         <v>Всього ПДВ 0%</v>
       </c>
-      <c r="J15" s="32"/>
-      <c r="K15" s="36"/>
-      <c r="L15" s="36"/>
-      <c r="M15" s="36"/>
-      <c r="N15" s="36"/>
-      <c r="O15" s="37">
-        <f>M14</f>
+      <c r="J13" s="32"/>
+      <c r="K13" s="36"/>
+      <c r="L13" s="36"/>
+      <c r="M13" s="36"/>
+      <c r="N13" s="36"/>
+      <c r="O13" s="37">
+        <f>M12</f>
         <v>0</v>
       </c>
     </row>
+    <row r="14" ht="12.75" customHeight="1">
+      <c r="H14" s="34"/>
+      <c r="I14" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="J14" s="32"/>
+      <c r="K14" s="36"/>
+      <c r="L14" s="36"/>
+      <c r="M14" s="36"/>
+      <c r="N14" s="36"/>
+      <c r="O14" s="38">
+        <f>O12+O13</f>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="15" ht="12.75" customHeight="1">
+      <c r="B15" s="39"/>
+      <c r="C15" s="39"/>
+      <c r="D15" s="39"/>
+      <c r="E15" s="39"/>
+      <c r="F15" s="39"/>
+      <c r="G15" s="39"/>
+      <c r="H15" s="35"/>
+      <c r="I15" s="35"/>
+      <c r="J15" s="35"/>
+      <c r="K15" s="35"/>
+      <c r="L15" s="35"/>
+      <c r="M15" s="35"/>
+      <c r="N15" s="35"/>
+      <c r="O15" s="35"/>
+    </row>
     <row r="16" ht="12.75" customHeight="1">
-      <c r="H16" s="34"/>
-      <c r="I16" s="32" t="s">
-        <v>19</v>
-      </c>
-      <c r="J16" s="32"/>
-      <c r="K16" s="36"/>
-      <c r="L16" s="36"/>
-      <c r="M16" s="36"/>
-      <c r="N16" s="36"/>
-      <c r="O16" s="38">
-        <f>O14+O15</f>
-        <v>168.91999999999999</v>
-      </c>
+      <c r="B16" s="39"/>
+      <c r="C16" s="39"/>
+      <c r="D16" s="39"/>
+      <c r="E16" s="39"/>
+      <c r="F16" s="39"/>
+      <c r="G16" s="39"/>
+      <c r="H16" s="35"/>
+      <c r="I16" s="35"/>
+      <c r="J16" s="35"/>
+      <c r="K16" s="35"/>
+      <c r="L16" s="35"/>
+      <c r="M16" s="35"/>
+      <c r="N16" s="35"/>
+      <c r="O16" s="35"/>
     </row>
     <row r="17" ht="12.75" customHeight="1">
       <c r="B17" s="39"/>
@@ -1168,39 +1120,50 @@
       <c r="O17" s="35"/>
     </row>
     <row r="18" ht="12.75" customHeight="1">
-      <c r="B18" s="39"/>
-      <c r="C18" s="39"/>
-      <c r="D18" s="39"/>
-      <c r="E18" s="39"/>
-      <c r="F18" s="39"/>
-      <c r="G18" s="39"/>
-      <c r="H18" s="35"/>
-      <c r="I18" s="35"/>
-      <c r="J18" s="35"/>
-      <c r="K18" s="35"/>
-      <c r="L18" s="35"/>
-      <c r="M18" s="35"/>
-      <c r="N18" s="35"/>
-      <c r="O18" s="35"/>
+      <c r="A18" s="40"/>
+      <c r="B18" s="41"/>
+      <c r="C18" s="41"/>
+      <c r="D18" s="41"/>
+      <c r="E18" s="41"/>
+      <c r="F18" s="41"/>
+      <c r="G18" s="41"/>
+      <c r="H18" s="41"/>
+      <c r="I18" s="41"/>
+      <c r="J18" s="41"/>
+      <c r="K18" s="41"/>
+      <c r="L18" s="41"/>
+      <c r="M18" s="41"/>
+      <c r="N18" s="41"/>
+      <c r="O18" s="41"/>
     </row>
     <row r="19" ht="12.75" customHeight="1">
-      <c r="B19" s="39"/>
-      <c r="C19" s="39"/>
-      <c r="D19" s="39"/>
-      <c r="E19" s="39"/>
-      <c r="F19" s="39"/>
-      <c r="G19" s="39"/>
-      <c r="H19" s="35"/>
-      <c r="I19" s="35"/>
-      <c r="J19" s="35"/>
-      <c r="K19" s="35"/>
-      <c r="L19" s="35"/>
-      <c r="M19" s="35"/>
-      <c r="N19" s="35"/>
-      <c r="O19" s="35"/>
+      <c r="A19" s="40"/>
+      <c r="B19" s="42" t="s">
+        <v>18</v>
+      </c>
+      <c r="C19" s="42"/>
+      <c r="D19" s="43" t="str">
+        <f>IF(1 &lt; 0,"Admin"," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="E19" s="43"/>
+      <c r="F19" s="43"/>
+      <c r="G19" s="42" t="s">
+        <v>19</v>
+      </c>
+      <c r="H19" s="42"/>
+      <c r="I19" s="43" t="str">
+        <f>IF(1 &gt; 0,"Admin"," ")</f>
+        <v>Admin</v>
+      </c>
+      <c r="J19" s="43"/>
+      <c r="K19" s="43"/>
+      <c r="L19" s="43"/>
+      <c r="M19" s="43"/>
+      <c r="N19" s="43"/>
+      <c r="O19" s="43"/>
     </row>
     <row r="20" ht="12.75" customHeight="1">
-      <c r="A20" s="40"/>
       <c r="B20" s="41"/>
       <c r="C20" s="41"/>
       <c r="D20" s="41"/>
@@ -1217,31 +1180,20 @@
       <c r="O20" s="41"/>
     </row>
     <row r="21" ht="12.75" customHeight="1">
-      <c r="A21" s="40"/>
-      <c r="B21" s="42" t="s">
-        <v>20</v>
-      </c>
-      <c r="C21" s="42"/>
-      <c r="D21" s="43" t="str">
-        <f>IF(1 &lt; 0,"Admin"," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="E21" s="43"/>
-      <c r="F21" s="43"/>
-      <c r="G21" s="42" t="s">
-        <v>21</v>
-      </c>
-      <c r="H21" s="42"/>
-      <c r="I21" s="43" t="str">
-        <f>IF(1 &gt; 0,"Admin"," ")</f>
-        <v>Admin</v>
-      </c>
-      <c r="J21" s="43"/>
-      <c r="K21" s="43"/>
-      <c r="L21" s="43"/>
-      <c r="M21" s="43"/>
-      <c r="N21" s="43"/>
-      <c r="O21" s="43"/>
+      <c r="B21" s="41"/>
+      <c r="C21" s="41"/>
+      <c r="D21" s="41"/>
+      <c r="E21" s="41"/>
+      <c r="F21" s="41"/>
+      <c r="G21" s="41"/>
+      <c r="H21" s="41"/>
+      <c r="I21" s="41"/>
+      <c r="J21" s="41"/>
+      <c r="K21" s="41"/>
+      <c r="L21" s="41"/>
+      <c r="M21" s="41"/>
+      <c r="N21" s="41"/>
+      <c r="O21" s="41"/>
     </row>
     <row r="22" ht="12.75" customHeight="1">
       <c r="B22" s="41"/>
@@ -1547,7 +1499,7 @@
       <c r="N40" s="41"/>
       <c r="O40" s="41"/>
     </row>
-    <row r="41" ht="12.75" customHeight="1">
+    <row r="41">
       <c r="B41" s="41"/>
       <c r="C41" s="41"/>
       <c r="D41" s="41"/>
@@ -1563,7 +1515,7 @@
       <c r="N41" s="41"/>
       <c r="O41" s="41"/>
     </row>
-    <row r="42" ht="12.75" customHeight="1">
+    <row r="42">
       <c r="B42" s="41"/>
       <c r="C42" s="41"/>
       <c r="D42" s="41"/>
@@ -2443,59 +2395,25 @@
       <c r="N96" s="41"/>
       <c r="O96" s="41"/>
     </row>
-    <row r="97">
-      <c r="B97" s="41"/>
-      <c r="C97" s="41"/>
-      <c r="D97" s="41"/>
-      <c r="E97" s="41"/>
-      <c r="F97" s="41"/>
-      <c r="G97" s="41"/>
-      <c r="H97" s="41"/>
-      <c r="I97" s="41"/>
-      <c r="J97" s="41"/>
-      <c r="K97" s="41"/>
-      <c r="L97" s="41"/>
-      <c r="M97" s="41"/>
-      <c r="N97" s="41"/>
-      <c r="O97" s="41"/>
-    </row>
-    <row r="98">
-      <c r="B98" s="41"/>
-      <c r="C98" s="41"/>
-      <c r="D98" s="41"/>
-      <c r="E98" s="41"/>
-      <c r="F98" s="41"/>
-      <c r="G98" s="41"/>
-      <c r="H98" s="41"/>
-      <c r="I98" s="41"/>
-      <c r="J98" s="41"/>
-      <c r="K98" s="41"/>
-      <c r="L98" s="41"/>
-      <c r="M98" s="41"/>
-      <c r="N98" s="41"/>
-      <c r="O98" s="41"/>
-    </row>
   </sheetData>
-  <mergeCells count="19">
+  <mergeCells count="17">
     <mergeCell ref="K2:O2"/>
     <mergeCell ref="B2:H2"/>
     <mergeCell ref="B3:E3"/>
     <mergeCell ref="B8:O8"/>
-    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="I12:J12"/>
     <mergeCell ref="B5:D5"/>
     <mergeCell ref="E5:O5"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="I21:O21"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="I19:O19"/>
     <mergeCell ref="C10:G10"/>
     <mergeCell ref="C9:D9"/>
-    <mergeCell ref="B17:F17"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="B15:F15"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="I13:J13"/>
     <mergeCell ref="C11:G11"/>
-    <mergeCell ref="C12:G12"/>
-    <mergeCell ref="C13:G13"/>
   </mergeCells>
   <pageMargins left="0.5902778" right="0" top="0.39375" bottom="0.39375" header="0.5118055" footer="0.5118055"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/SP_Sklad/Rep/WayBill_In.xlsx
+++ b/SP_Sklad/Rep/WayBill_In.xlsx
@@ -9,7 +9,7 @@
     <sheet name="Накладна" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="range1">Накладна!$A$11:$O$12</definedName>
+    <definedName name="range1">Накладна!$A$11:$O$15</definedName>
     <definedName name="range2">#REF!</definedName>
   </definedNames>
   <calcPr/>
@@ -22,7 +22,7 @@
     <t xml:space="preserve">ПРИБУТКОВА НАКЛАДНА № </t>
   </si>
   <si>
-    <t>Пн-66</t>
+    <t>Пн-12</t>
   </si>
   <si>
     <t xml:space="preserve">від </t>
@@ -61,10 +61,16 @@
     <t>Сума без ПДВ</t>
   </si>
   <si>
+    <t>Продукція №3</t>
+  </si>
+  <si>
+    <t>кг.</t>
+  </si>
+  <si>
     <t>Продукція №1</t>
   </si>
   <si>
-    <t>кг.</t>
+    <t>Продукція №2</t>
   </si>
   <si>
     <t>Всього без ПДВ</t>
@@ -816,7 +822,7 @@
         <v>2</v>
       </c>
       <c r="K2" s="4">
-        <v>42487.387230868051</v>
+        <v>42498.879751736109</v>
       </c>
       <c r="L2" s="4"/>
       <c r="M2" s="4"/>
@@ -989,7 +995,7 @@
         <v>1</v>
       </c>
       <c r="J11" s="26">
-        <v>40</v>
+        <v>8</v>
       </c>
       <c r="K11" s="27" t="e">
         <f>range1_DISCOUNTPRICE</f>
@@ -1005,181 +1011,233 @@
       <c r="N11" s="28"/>
       <c r="O11" s="28">
         <f>IF(N11&lt;&gt;1,ROUND(I11*J11,2),0)</f>
-        <v>40</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12" ht="12.75" customHeight="1">
-      <c r="B12" s="29"/>
-      <c r="C12" s="30"/>
-      <c r="D12" s="30"/>
-      <c r="E12" s="30"/>
-      <c r="F12" s="31"/>
-      <c r="G12" s="31"/>
-      <c r="H12" s="31"/>
-      <c r="I12" s="32" t="s">
+      <c r="B12" s="22">
+        <v>2</v>
+      </c>
+      <c r="C12" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="J12" s="32"/>
-      <c r="K12" s="33" t="e">
-        <f>SUM(K11)</f>
+      <c r="D12" s="24"/>
+      <c r="E12" s="24"/>
+      <c r="F12" s="24"/>
+      <c r="G12" s="25"/>
+      <c r="H12" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="I12" s="26">
+        <v>10</v>
+      </c>
+      <c r="J12" s="26">
+        <v>15</v>
+      </c>
+      <c r="K12" s="27" t="e">
+        <f>range1_DISCOUNTPRICE</f>
         <v>#NAME?</v>
       </c>
-      <c r="L12" s="33"/>
-      <c r="M12" s="33">
-        <f>SUM(M11)</f>
+      <c r="L12" s="27">
         <v>0</v>
       </c>
-      <c r="N12" s="33"/>
-      <c r="O12" s="33">
-        <f>SUM(O11)</f>
-        <v>40</v>
+      <c r="M12" s="28">
+        <f>ROUND(O12*L12/100,2)</f>
+        <v>0</v>
+      </c>
+      <c r="N12" s="28"/>
+      <c r="O12" s="28">
+        <f>IF(N12&lt;&gt;1,ROUND(I12*J12,2),0)</f>
+        <v>150</v>
       </c>
     </row>
     <row r="13" ht="12.75" customHeight="1">
-      <c r="B13" s="34"/>
-      <c r="D13" s="34"/>
-      <c r="E13" s="34"/>
-      <c r="F13" s="35"/>
-      <c r="G13" s="35"/>
-      <c r="H13" s="35"/>
-      <c r="I13" s="32" t="str">
+      <c r="B13" s="22">
+        <v>3</v>
+      </c>
+      <c r="C13" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="D13" s="24"/>
+      <c r="E13" s="24"/>
+      <c r="F13" s="24"/>
+      <c r="G13" s="25"/>
+      <c r="H13" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="I13" s="26">
+        <v>7</v>
+      </c>
+      <c r="J13" s="26">
+        <v>1.5600000000000001</v>
+      </c>
+      <c r="K13" s="27" t="e">
+        <f>range1_DISCOUNTPRICE</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="L13" s="27">
+        <v>0</v>
+      </c>
+      <c r="M13" s="28">
+        <f>ROUND(O13*L13/100,2)</f>
+        <v>0</v>
+      </c>
+      <c r="N13" s="28"/>
+      <c r="O13" s="28">
+        <f>IF(N13&lt;&gt;1,ROUND(I13*J13,2),0)</f>
+        <v>10.92</v>
+      </c>
+    </row>
+    <row r="14" ht="12.75" customHeight="1">
+      <c r="B14" s="22">
+        <v>4</v>
+      </c>
+      <c r="C14" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="D14" s="24"/>
+      <c r="E14" s="24"/>
+      <c r="F14" s="24"/>
+      <c r="G14" s="25"/>
+      <c r="H14" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="I14" s="26">
+        <v>77</v>
+      </c>
+      <c r="J14" s="26">
+        <v>88</v>
+      </c>
+      <c r="K14" s="27" t="e">
+        <f>range1_DISCOUNTPRICE</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="L14" s="27">
+        <v>0</v>
+      </c>
+      <c r="M14" s="28">
+        <f>ROUND(O14*L14/100,2)</f>
+        <v>0</v>
+      </c>
+      <c r="N14" s="28"/>
+      <c r="O14" s="28">
+        <f>IF(N14&lt;&gt;1,ROUND(I14*J14,2),0)</f>
+        <v>6776</v>
+      </c>
+    </row>
+    <row r="15" ht="12.75" customHeight="1">
+      <c r="B15" s="29"/>
+      <c r="C15" s="30"/>
+      <c r="D15" s="30"/>
+      <c r="E15" s="30"/>
+      <c r="F15" s="31"/>
+      <c r="G15" s="31"/>
+      <c r="H15" s="31"/>
+      <c r="I15" s="32" t="s">
+        <v>18</v>
+      </c>
+      <c r="J15" s="32"/>
+      <c r="K15" s="33" t="e">
+        <f>SUM(K11:K14)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="L15" s="33"/>
+      <c r="M15" s="33">
+        <f>SUM(M11:M14)</f>
+        <v>0</v>
+      </c>
+      <c r="N15" s="33"/>
+      <c r="O15" s="33">
+        <f>SUM(O11:O14)</f>
+        <v>6944.9200000000001</v>
+      </c>
+    </row>
+    <row r="16" ht="12.75" customHeight="1">
+      <c r="B16" s="34"/>
+      <c r="D16" s="34"/>
+      <c r="E16" s="34"/>
+      <c r="F16" s="35"/>
+      <c r="G16" s="35"/>
+      <c r="H16" s="35"/>
+      <c r="I16" s="32" t="str">
         <f>"Всього ПДВ "&amp;0&amp;"%"</f>
         <v>Всього ПДВ 0%</v>
       </c>
-      <c r="J13" s="32"/>
-      <c r="K13" s="36"/>
-      <c r="L13" s="36"/>
-      <c r="M13" s="36"/>
-      <c r="N13" s="36"/>
-      <c r="O13" s="37">
-        <f>M12</f>
+      <c r="J16" s="32"/>
+      <c r="K16" s="36"/>
+      <c r="L16" s="36"/>
+      <c r="M16" s="36"/>
+      <c r="N16" s="36"/>
+      <c r="O16" s="37">
+        <f>M15</f>
         <v>0</v>
       </c>
     </row>
-    <row r="14" ht="12.75" customHeight="1">
-      <c r="H14" s="34"/>
-      <c r="I14" s="32" t="s">
-        <v>17</v>
-      </c>
-      <c r="J14" s="32"/>
-      <c r="K14" s="36"/>
-      <c r="L14" s="36"/>
-      <c r="M14" s="36"/>
-      <c r="N14" s="36"/>
-      <c r="O14" s="38">
-        <f>O12+O13</f>
-        <v>40</v>
-      </c>
-    </row>
-    <row r="15" ht="12.75" customHeight="1">
-      <c r="B15" s="39"/>
-      <c r="C15" s="39"/>
-      <c r="D15" s="39"/>
-      <c r="E15" s="39"/>
-      <c r="F15" s="39"/>
-      <c r="G15" s="39"/>
-      <c r="H15" s="35"/>
-      <c r="I15" s="35"/>
-      <c r="J15" s="35"/>
-      <c r="K15" s="35"/>
-      <c r="L15" s="35"/>
-      <c r="M15" s="35"/>
-      <c r="N15" s="35"/>
-      <c r="O15" s="35"/>
-    </row>
-    <row r="16" ht="12.75" customHeight="1">
-      <c r="B16" s="39"/>
-      <c r="C16" s="39"/>
-      <c r="D16" s="39"/>
-      <c r="E16" s="39"/>
-      <c r="F16" s="39"/>
-      <c r="G16" s="39"/>
-      <c r="H16" s="35"/>
-      <c r="I16" s="35"/>
-      <c r="J16" s="35"/>
-      <c r="K16" s="35"/>
-      <c r="L16" s="35"/>
-      <c r="M16" s="35"/>
-      <c r="N16" s="35"/>
-      <c r="O16" s="35"/>
-    </row>
     <row r="17" ht="12.75" customHeight="1">
-      <c r="B17" s="39"/>
-      <c r="C17" s="39"/>
-      <c r="D17" s="39"/>
-      <c r="E17" s="39"/>
-      <c r="F17" s="39"/>
-      <c r="G17" s="39"/>
-      <c r="H17" s="35"/>
-      <c r="I17" s="35"/>
-      <c r="J17" s="35"/>
-      <c r="K17" s="35"/>
-      <c r="L17" s="35"/>
-      <c r="M17" s="35"/>
-      <c r="N17" s="35"/>
-      <c r="O17" s="35"/>
+      <c r="H17" s="34"/>
+      <c r="I17" s="32" t="s">
+        <v>19</v>
+      </c>
+      <c r="J17" s="32"/>
+      <c r="K17" s="36"/>
+      <c r="L17" s="36"/>
+      <c r="M17" s="36"/>
+      <c r="N17" s="36"/>
+      <c r="O17" s="38">
+        <f>O15+O16</f>
+        <v>6944.9200000000001</v>
+      </c>
     </row>
     <row r="18" ht="12.75" customHeight="1">
-      <c r="A18" s="40"/>
-      <c r="B18" s="41"/>
-      <c r="C18" s="41"/>
-      <c r="D18" s="41"/>
-      <c r="E18" s="41"/>
-      <c r="F18" s="41"/>
-      <c r="G18" s="41"/>
-      <c r="H18" s="41"/>
-      <c r="I18" s="41"/>
-      <c r="J18" s="41"/>
-      <c r="K18" s="41"/>
-      <c r="L18" s="41"/>
-      <c r="M18" s="41"/>
-      <c r="N18" s="41"/>
-      <c r="O18" s="41"/>
+      <c r="B18" s="39"/>
+      <c r="C18" s="39"/>
+      <c r="D18" s="39"/>
+      <c r="E18" s="39"/>
+      <c r="F18" s="39"/>
+      <c r="G18" s="39"/>
+      <c r="H18" s="35"/>
+      <c r="I18" s="35"/>
+      <c r="J18" s="35"/>
+      <c r="K18" s="35"/>
+      <c r="L18" s="35"/>
+      <c r="M18" s="35"/>
+      <c r="N18" s="35"/>
+      <c r="O18" s="35"/>
     </row>
     <row r="19" ht="12.75" customHeight="1">
-      <c r="A19" s="40"/>
-      <c r="B19" s="42" t="s">
-        <v>18</v>
-      </c>
-      <c r="C19" s="42"/>
-      <c r="D19" s="43" t="str">
-        <f>IF(1 &lt; 0,"Admin"," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="E19" s="43"/>
-      <c r="F19" s="43"/>
-      <c r="G19" s="42" t="s">
-        <v>19</v>
-      </c>
-      <c r="H19" s="42"/>
-      <c r="I19" s="43" t="str">
-        <f>IF(1 &gt; 0,"Admin"," ")</f>
-        <v>Admin</v>
-      </c>
-      <c r="J19" s="43"/>
-      <c r="K19" s="43"/>
-      <c r="L19" s="43"/>
-      <c r="M19" s="43"/>
-      <c r="N19" s="43"/>
-      <c r="O19" s="43"/>
+      <c r="B19" s="39"/>
+      <c r="C19" s="39"/>
+      <c r="D19" s="39"/>
+      <c r="E19" s="39"/>
+      <c r="F19" s="39"/>
+      <c r="G19" s="39"/>
+      <c r="H19" s="35"/>
+      <c r="I19" s="35"/>
+      <c r="J19" s="35"/>
+      <c r="K19" s="35"/>
+      <c r="L19" s="35"/>
+      <c r="M19" s="35"/>
+      <c r="N19" s="35"/>
+      <c r="O19" s="35"/>
     </row>
     <row r="20" ht="12.75" customHeight="1">
-      <c r="B20" s="41"/>
-      <c r="C20" s="41"/>
-      <c r="D20" s="41"/>
-      <c r="E20" s="41"/>
-      <c r="F20" s="41"/>
-      <c r="G20" s="41"/>
-      <c r="H20" s="41"/>
-      <c r="I20" s="41"/>
-      <c r="J20" s="41"/>
-      <c r="K20" s="41"/>
-      <c r="L20" s="41"/>
-      <c r="M20" s="41"/>
-      <c r="N20" s="41"/>
-      <c r="O20" s="41"/>
+      <c r="B20" s="39"/>
+      <c r="C20" s="39"/>
+      <c r="D20" s="39"/>
+      <c r="E20" s="39"/>
+      <c r="F20" s="39"/>
+      <c r="G20" s="39"/>
+      <c r="H20" s="35"/>
+      <c r="I20" s="35"/>
+      <c r="J20" s="35"/>
+      <c r="K20" s="35"/>
+      <c r="L20" s="35"/>
+      <c r="M20" s="35"/>
+      <c r="N20" s="35"/>
+      <c r="O20" s="35"/>
     </row>
     <row r="21" ht="12.75" customHeight="1">
+      <c r="A21" s="40"/>
       <c r="B21" s="41"/>
       <c r="C21" s="41"/>
       <c r="D21" s="41"/>
@@ -1196,20 +1254,31 @@
       <c r="O21" s="41"/>
     </row>
     <row r="22" ht="12.75" customHeight="1">
-      <c r="B22" s="41"/>
-      <c r="C22" s="41"/>
-      <c r="D22" s="41"/>
-      <c r="E22" s="41"/>
-      <c r="F22" s="41"/>
-      <c r="G22" s="41"/>
-      <c r="H22" s="41"/>
-      <c r="I22" s="41"/>
-      <c r="J22" s="41"/>
-      <c r="K22" s="41"/>
-      <c r="L22" s="41"/>
-      <c r="M22" s="41"/>
-      <c r="N22" s="41"/>
-      <c r="O22" s="41"/>
+      <c r="A22" s="40"/>
+      <c r="B22" s="42" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22" s="42"/>
+      <c r="D22" s="43" t="str">
+        <f>IF(1 &lt; 0,"Admin"," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="E22" s="43"/>
+      <c r="F22" s="43"/>
+      <c r="G22" s="42" t="s">
+        <v>21</v>
+      </c>
+      <c r="H22" s="42"/>
+      <c r="I22" s="43" t="str">
+        <f>IF(1 &gt; 0,"Admin"," ")</f>
+        <v>Admin</v>
+      </c>
+      <c r="J22" s="43"/>
+      <c r="K22" s="43"/>
+      <c r="L22" s="43"/>
+      <c r="M22" s="43"/>
+      <c r="N22" s="43"/>
+      <c r="O22" s="43"/>
     </row>
     <row r="23" ht="12.75" customHeight="1">
       <c r="B23" s="41"/>
@@ -1499,7 +1568,7 @@
       <c r="N40" s="41"/>
       <c r="O40" s="41"/>
     </row>
-    <row r="41">
+    <row r="41" ht="12.75" customHeight="1">
       <c r="B41" s="41"/>
       <c r="C41" s="41"/>
       <c r="D41" s="41"/>
@@ -1515,7 +1584,7 @@
       <c r="N41" s="41"/>
       <c r="O41" s="41"/>
     </row>
-    <row r="42">
+    <row r="42" ht="12.75" customHeight="1">
       <c r="B42" s="41"/>
       <c r="C42" s="41"/>
       <c r="D42" s="41"/>
@@ -1531,7 +1600,7 @@
       <c r="N42" s="41"/>
       <c r="O42" s="41"/>
     </row>
-    <row r="43">
+    <row r="43" ht="12.75" customHeight="1">
       <c r="B43" s="41"/>
       <c r="C43" s="41"/>
       <c r="D43" s="41"/>
@@ -2395,25 +2464,76 @@
       <c r="N96" s="41"/>
       <c r="O96" s="41"/>
     </row>
+    <row r="97">
+      <c r="B97" s="41"/>
+      <c r="C97" s="41"/>
+      <c r="D97" s="41"/>
+      <c r="E97" s="41"/>
+      <c r="F97" s="41"/>
+      <c r="G97" s="41"/>
+      <c r="H97" s="41"/>
+      <c r="I97" s="41"/>
+      <c r="J97" s="41"/>
+      <c r="K97" s="41"/>
+      <c r="L97" s="41"/>
+      <c r="M97" s="41"/>
+      <c r="N97" s="41"/>
+      <c r="O97" s="41"/>
+    </row>
+    <row r="98">
+      <c r="B98" s="41"/>
+      <c r="C98" s="41"/>
+      <c r="D98" s="41"/>
+      <c r="E98" s="41"/>
+      <c r="F98" s="41"/>
+      <c r="G98" s="41"/>
+      <c r="H98" s="41"/>
+      <c r="I98" s="41"/>
+      <c r="J98" s="41"/>
+      <c r="K98" s="41"/>
+      <c r="L98" s="41"/>
+      <c r="M98" s="41"/>
+      <c r="N98" s="41"/>
+      <c r="O98" s="41"/>
+    </row>
+    <row r="99">
+      <c r="B99" s="41"/>
+      <c r="C99" s="41"/>
+      <c r="D99" s="41"/>
+      <c r="E99" s="41"/>
+      <c r="F99" s="41"/>
+      <c r="G99" s="41"/>
+      <c r="H99" s="41"/>
+      <c r="I99" s="41"/>
+      <c r="J99" s="41"/>
+      <c r="K99" s="41"/>
+      <c r="L99" s="41"/>
+      <c r="M99" s="41"/>
+      <c r="N99" s="41"/>
+      <c r="O99" s="41"/>
+    </row>
   </sheetData>
-  <mergeCells count="17">
+  <mergeCells count="20">
     <mergeCell ref="K2:O2"/>
     <mergeCell ref="B2:H2"/>
     <mergeCell ref="B3:E3"/>
     <mergeCell ref="B8:O8"/>
-    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="I15:J15"/>
     <mergeCell ref="B5:D5"/>
     <mergeCell ref="E5:O5"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="I19:O19"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="I22:O22"/>
     <mergeCell ref="C10:G10"/>
     <mergeCell ref="C9:D9"/>
-    <mergeCell ref="B15:F15"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="B18:F18"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="I16:J16"/>
     <mergeCell ref="C11:G11"/>
+    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="C13:G13"/>
+    <mergeCell ref="C14:G14"/>
   </mergeCells>
   <pageMargins left="0.5902778" right="0" top="0.39375" bottom="0.39375" header="0.5118055" footer="0.5118055"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/SP_Sklad/Rep/WayBill_In.xlsx
+++ b/SP_Sklad/Rep/WayBill_In.xlsx
@@ -9,7 +9,7 @@
     <sheet name="Накладна" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="range1">Накладна!$A$11:$O$15</definedName>
+    <definedName name="range1">Накладна!$A$11:$O$14</definedName>
     <definedName name="range2">#REF!</definedName>
   </definedNames>
   <calcPr/>
@@ -1089,104 +1089,83 @@
       </c>
     </row>
     <row r="14" ht="12.75" customHeight="1">
-      <c r="B14" s="22">
-        <v>4</v>
-      </c>
-      <c r="C14" s="23" t="s">
-        <v>17</v>
-      </c>
-      <c r="D14" s="24"/>
-      <c r="E14" s="24"/>
-      <c r="F14" s="24"/>
-      <c r="G14" s="25"/>
-      <c r="H14" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="I14" s="26">
-        <v>77</v>
-      </c>
-      <c r="J14" s="26">
-        <v>88</v>
-      </c>
-      <c r="K14" s="27" t="e">
-        <f>range1_DISCOUNTPRICE</f>
+      <c r="B14" s="29"/>
+      <c r="C14" s="30"/>
+      <c r="D14" s="30"/>
+      <c r="E14" s="30"/>
+      <c r="F14" s="31"/>
+      <c r="G14" s="31"/>
+      <c r="H14" s="31"/>
+      <c r="I14" s="32" t="s">
+        <v>18</v>
+      </c>
+      <c r="J14" s="32"/>
+      <c r="K14" s="33" t="e">
+        <f>SUM(K11:K13)</f>
         <v>#NAME?</v>
       </c>
-      <c r="L14" s="27">
+      <c r="L14" s="33"/>
+      <c r="M14" s="33">
+        <f>SUM(M11:M13)</f>
         <v>0</v>
       </c>
-      <c r="M14" s="28">
-        <f>ROUND(O14*L14/100,2)</f>
-        <v>0</v>
-      </c>
-      <c r="N14" s="28"/>
-      <c r="O14" s="28">
-        <f>IF(N14&lt;&gt;1,ROUND(I14*J14,2),0)</f>
-        <v>6776</v>
+      <c r="N14" s="33"/>
+      <c r="O14" s="33">
+        <f>SUM(O11:O13)</f>
+        <v>168.91999999999999</v>
       </c>
     </row>
     <row r="15" ht="12.75" customHeight="1">
-      <c r="B15" s="29"/>
-      <c r="C15" s="30"/>
-      <c r="D15" s="30"/>
-      <c r="E15" s="30"/>
-      <c r="F15" s="31"/>
-      <c r="G15" s="31"/>
-      <c r="H15" s="31"/>
-      <c r="I15" s="32" t="s">
-        <v>18</v>
-      </c>
-      <c r="J15" s="32"/>
-      <c r="K15" s="33" t="e">
-        <f>SUM(K11:K14)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="L15" s="33"/>
-      <c r="M15" s="33">
-        <f>SUM(M11:M14)</f>
-        <v>0</v>
-      </c>
-      <c r="N15" s="33"/>
-      <c r="O15" s="33">
-        <f>SUM(O11:O14)</f>
-        <v>6944.9200000000001</v>
-      </c>
-    </row>
-    <row r="16" ht="12.75" customHeight="1">
-      <c r="B16" s="34"/>
-      <c r="D16" s="34"/>
-      <c r="E16" s="34"/>
-      <c r="F16" s="35"/>
-      <c r="G16" s="35"/>
-      <c r="H16" s="35"/>
-      <c r="I16" s="32" t="str">
+      <c r="B15" s="34"/>
+      <c r="D15" s="34"/>
+      <c r="E15" s="34"/>
+      <c r="F15" s="35"/>
+      <c r="G15" s="35"/>
+      <c r="H15" s="35"/>
+      <c r="I15" s="32" t="str">
         <f>"Всього ПДВ "&amp;0&amp;"%"</f>
         <v>Всього ПДВ 0%</v>
+      </c>
+      <c r="J15" s="32"/>
+      <c r="K15" s="36"/>
+      <c r="L15" s="36"/>
+      <c r="M15" s="36"/>
+      <c r="N15" s="36"/>
+      <c r="O15" s="37">
+        <f>M14</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" ht="12.75" customHeight="1">
+      <c r="H16" s="34"/>
+      <c r="I16" s="32" t="s">
+        <v>19</v>
       </c>
       <c r="J16" s="32"/>
       <c r="K16" s="36"/>
       <c r="L16" s="36"/>
       <c r="M16" s="36"/>
       <c r="N16" s="36"/>
-      <c r="O16" s="37">
-        <f>M15</f>
-        <v>0</v>
+      <c r="O16" s="38">
+        <f>O14+O15</f>
+        <v>168.91999999999999</v>
       </c>
     </row>
     <row r="17" ht="12.75" customHeight="1">
-      <c r="H17" s="34"/>
-      <c r="I17" s="32" t="s">
-        <v>19</v>
-      </c>
-      <c r="J17" s="32"/>
-      <c r="K17" s="36"/>
-      <c r="L17" s="36"/>
-      <c r="M17" s="36"/>
-      <c r="N17" s="36"/>
-      <c r="O17" s="38">
-        <f>O15+O16</f>
-        <v>6944.9200000000001</v>
-      </c>
+      <c r="B17" s="39"/>
+      <c r="C17" s="39"/>
+      <c r="D17" s="39"/>
+      <c r="E17" s="39"/>
+      <c r="F17" s="39"/>
+      <c r="G17" s="39"/>
+      <c r="H17" s="35"/>
+      <c r="I17" s="35"/>
+      <c r="J17" s="35"/>
+      <c r="K17" s="35"/>
+      <c r="L17" s="35"/>
+      <c r="M17" s="35"/>
+      <c r="N17" s="35"/>
+      <c r="O17" s="35"/>
     </row>
     <row r="18" ht="12.75" customHeight="1">
       <c r="B18" s="39"/>
@@ -1221,64 +1200,64 @@
       <c r="O19" s="35"/>
     </row>
     <row r="20" ht="12.75" customHeight="1">
-      <c r="B20" s="39"/>
-      <c r="C20" s="39"/>
-      <c r="D20" s="39"/>
-      <c r="E20" s="39"/>
-      <c r="F20" s="39"/>
-      <c r="G20" s="39"/>
-      <c r="H20" s="35"/>
-      <c r="I20" s="35"/>
-      <c r="J20" s="35"/>
-      <c r="K20" s="35"/>
-      <c r="L20" s="35"/>
-      <c r="M20" s="35"/>
-      <c r="N20" s="35"/>
-      <c r="O20" s="35"/>
+      <c r="A20" s="40"/>
+      <c r="B20" s="41"/>
+      <c r="C20" s="41"/>
+      <c r="D20" s="41"/>
+      <c r="E20" s="41"/>
+      <c r="F20" s="41"/>
+      <c r="G20" s="41"/>
+      <c r="H20" s="41"/>
+      <c r="I20" s="41"/>
+      <c r="J20" s="41"/>
+      <c r="K20" s="41"/>
+      <c r="L20" s="41"/>
+      <c r="M20" s="41"/>
+      <c r="N20" s="41"/>
+      <c r="O20" s="41"/>
     </row>
     <row r="21" ht="12.75" customHeight="1">
       <c r="A21" s="40"/>
-      <c r="B21" s="41"/>
-      <c r="C21" s="41"/>
-      <c r="D21" s="41"/>
-      <c r="E21" s="41"/>
-      <c r="F21" s="41"/>
-      <c r="G21" s="41"/>
-      <c r="H21" s="41"/>
-      <c r="I21" s="41"/>
-      <c r="J21" s="41"/>
-      <c r="K21" s="41"/>
-      <c r="L21" s="41"/>
-      <c r="M21" s="41"/>
-      <c r="N21" s="41"/>
-      <c r="O21" s="41"/>
-    </row>
-    <row r="22" ht="12.75" customHeight="1">
-      <c r="A22" s="40"/>
-      <c r="B22" s="42" t="s">
+      <c r="B21" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="C22" s="42"/>
-      <c r="D22" s="43" t="str">
+      <c r="C21" s="42"/>
+      <c r="D21" s="43" t="str">
         <f>IF(1 &lt; 0,"Admin"," ")</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E22" s="43"/>
-      <c r="F22" s="43"/>
-      <c r="G22" s="42" t="s">
+      <c r="E21" s="43"/>
+      <c r="F21" s="43"/>
+      <c r="G21" s="42" t="s">
         <v>21</v>
       </c>
-      <c r="H22" s="42"/>
-      <c r="I22" s="43" t="str">
+      <c r="H21" s="42"/>
+      <c r="I21" s="43" t="str">
         <f>IF(1 &gt; 0,"Admin"," ")</f>
         <v>Admin</v>
       </c>
-      <c r="J22" s="43"/>
-      <c r="K22" s="43"/>
-      <c r="L22" s="43"/>
-      <c r="M22" s="43"/>
-      <c r="N22" s="43"/>
-      <c r="O22" s="43"/>
+      <c r="J21" s="43"/>
+      <c r="K21" s="43"/>
+      <c r="L21" s="43"/>
+      <c r="M21" s="43"/>
+      <c r="N21" s="43"/>
+      <c r="O21" s="43"/>
+    </row>
+    <row r="22" ht="12.75" customHeight="1">
+      <c r="B22" s="41"/>
+      <c r="C22" s="41"/>
+      <c r="D22" s="41"/>
+      <c r="E22" s="41"/>
+      <c r="F22" s="41"/>
+      <c r="G22" s="41"/>
+      <c r="H22" s="41"/>
+      <c r="I22" s="41"/>
+      <c r="J22" s="41"/>
+      <c r="K22" s="41"/>
+      <c r="L22" s="41"/>
+      <c r="M22" s="41"/>
+      <c r="N22" s="41"/>
+      <c r="O22" s="41"/>
     </row>
     <row r="23" ht="12.75" customHeight="1">
       <c r="B23" s="41"/>
@@ -1600,7 +1579,7 @@
       <c r="N42" s="41"/>
       <c r="O42" s="41"/>
     </row>
-    <row r="43" ht="12.75" customHeight="1">
+    <row r="43">
       <c r="B43" s="41"/>
       <c r="C43" s="41"/>
       <c r="D43" s="41"/>
@@ -2496,44 +2475,27 @@
       <c r="N98" s="41"/>
       <c r="O98" s="41"/>
     </row>
-    <row r="99">
-      <c r="B99" s="41"/>
-      <c r="C99" s="41"/>
-      <c r="D99" s="41"/>
-      <c r="E99" s="41"/>
-      <c r="F99" s="41"/>
-      <c r="G99" s="41"/>
-      <c r="H99" s="41"/>
-      <c r="I99" s="41"/>
-      <c r="J99" s="41"/>
-      <c r="K99" s="41"/>
-      <c r="L99" s="41"/>
-      <c r="M99" s="41"/>
-      <c r="N99" s="41"/>
-      <c r="O99" s="41"/>
-    </row>
   </sheetData>
-  <mergeCells count="20">
+  <mergeCells count="19">
     <mergeCell ref="K2:O2"/>
     <mergeCell ref="B2:H2"/>
     <mergeCell ref="B3:E3"/>
     <mergeCell ref="B8:O8"/>
-    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="I14:J14"/>
     <mergeCell ref="B5:D5"/>
     <mergeCell ref="E5:O5"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="I22:O22"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="I21:O21"/>
     <mergeCell ref="C10:G10"/>
     <mergeCell ref="C9:D9"/>
-    <mergeCell ref="B18:F18"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="B17:F17"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:F21"/>
     <mergeCell ref="I16:J16"/>
+    <mergeCell ref="I15:J15"/>
     <mergeCell ref="C11:G11"/>
     <mergeCell ref="C12:G12"/>
     <mergeCell ref="C13:G13"/>
-    <mergeCell ref="C14:G14"/>
   </mergeCells>
   <pageMargins left="0.5902778" right="0" top="0.39375" bottom="0.39375" header="0.5118055" footer="0.5118055"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/SP_Sklad/Rep/WayBill_In.xlsx
+++ b/SP_Sklad/Rep/WayBill_In.xlsx
@@ -9,7 +9,7 @@
     <sheet name="Накладна" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="range1">Накладна!$A$11:$O$14</definedName>
+    <definedName name="range1">Накладна!$A$11:$O$57</definedName>
     <definedName name="range2">#REF!</definedName>
   </definedNames>
   <calcPr/>
@@ -22,7 +22,7 @@
     <t xml:space="preserve">ПРИБУТКОВА НАКЛАДНА № </t>
   </si>
   <si>
-    <t>Пн-12</t>
+    <t>test</t>
   </si>
   <si>
     <t xml:space="preserve">від </t>
@@ -61,16 +61,145 @@
     <t>Сума без ПДВ</t>
   </si>
   <si>
-    <t>Продукція №3</t>
+    <t>Софієвські 1.с". Сардельки</t>
   </si>
   <si>
     <t>кг.</t>
   </si>
   <si>
-    <t>Продукція №1</t>
-  </si>
-  <si>
-    <t>Продукція №2</t>
+    <t xml:space="preserve">Яловичина  1 сотру</t>
+  </si>
+  <si>
+    <t>Яловичина 2с.</t>
+  </si>
+  <si>
+    <t>Яловичина односортна</t>
+  </si>
+  <si>
+    <t>Свинина не жирна</t>
+  </si>
+  <si>
+    <t>Свинина напівжирна 50/50</t>
+  </si>
+  <si>
+    <t>Свинина жирна</t>
+  </si>
+  <si>
+    <t>Сало хребтове</t>
+  </si>
+  <si>
+    <t>Сало бокове</t>
+  </si>
+  <si>
+    <t>Мясо конини вищого сорту</t>
+  </si>
+  <si>
+    <t>Мясо конини односортне</t>
+  </si>
+  <si>
+    <t>Емульсія свинної шкури</t>
+  </si>
+  <si>
+    <t>Шкіра свиняча</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Жилка </t>
+  </si>
+  <si>
+    <t>Жир свинячий внутрішній</t>
+  </si>
+  <si>
+    <t>Жир яловичий внутрішній</t>
+  </si>
+  <si>
+    <t>Свинина ковбасна</t>
+  </si>
+  <si>
+    <t>Голови свинячі</t>
+  </si>
+  <si>
+    <t>Шлунки свинячі</t>
+  </si>
+  <si>
+    <t>Легені свинячі</t>
+  </si>
+  <si>
+    <t>Грудинка свиняча з кісточкою н.ф.</t>
+  </si>
+  <si>
+    <t>Ошийок свинячий не жилований</t>
+  </si>
+  <si>
+    <t>Балик свинячий не жилований н.ф.</t>
+  </si>
+  <si>
+    <t>Окорок свинячий не жилований</t>
+  </si>
+  <si>
+    <t>Лопатка свиняча не жилована н.ф.</t>
+  </si>
+  <si>
+    <t>Щоковина свиняча не жилована н.ф.</t>
+  </si>
+  <si>
+    <t>Ребро свиняче н.ф.</t>
+  </si>
+  <si>
+    <t>Філле курине</t>
+  </si>
+  <si>
+    <t>Окорочка курині</t>
+  </si>
+  <si>
+    <t>Крило курине</t>
+  </si>
+  <si>
+    <t>Гомілка курина</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Спинки  курині</t>
+  </si>
+  <si>
+    <t>Лікарська вар. в. с.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Любительська  варена в.с.</t>
+  </si>
+  <si>
+    <t>Молочні" в.с. Сардельки</t>
+  </si>
+  <si>
+    <t>Колобок" 1.с. Сосиски</t>
+  </si>
+  <si>
+    <t>З салом" 2с. Сардельки</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Школярик"  в.с. Сосиски</t>
+  </si>
+  <si>
+    <t>Мясо курине</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Молодіжні"  1 с. Сосиски</t>
+  </si>
+  <si>
+    <t>Сімейна варена 2с.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Салямі  н.к.в.с.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Сервілат в.к.   в.с.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Молочна  варена в.с.</t>
+  </si>
+  <si>
+    <t>Любительські" в.с. Сосиски</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Делікатесна з сиром  н.к.  1с.</t>
   </si>
   <si>
     <t>Всього без ПДВ</t>
@@ -822,7 +951,7 @@
         <v>2</v>
       </c>
       <c r="K2" s="4">
-        <v>42498.879751736109</v>
+        <v>41092.59177569444</v>
       </c>
       <c r="L2" s="4"/>
       <c r="M2" s="4"/>
@@ -866,8 +995,8 @@
       <c r="C5" s="8"/>
       <c r="D5" s="8"/>
       <c r="E5" s="8" t="str">
-        <f>IF(1 &gt; 0,"Постачальник №1"," ")</f>
-        <v>Постачальник №1</v>
+        <f>IF(1 &gt; 0,"Tect2"," ")</f>
+        <v>Tect2</v>
       </c>
       <c r="F5" s="8"/>
       <c r="G5" s="8"/>
@@ -995,7 +1124,7 @@
         <v>1</v>
       </c>
       <c r="J11" s="26">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="K11" s="27" t="e">
         <f>range1_DISCOUNTPRICE</f>
@@ -1011,7 +1140,7 @@
       <c r="N11" s="28"/>
       <c r="O11" s="28">
         <f>IF(N11&lt;&gt;1,ROUND(I11*J11,2),0)</f>
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" ht="12.75" customHeight="1">
@@ -1029,10 +1158,10 @@
         <v>15</v>
       </c>
       <c r="I12" s="26">
+        <v>1</v>
+      </c>
+      <c r="J12" s="26">
         <v>10</v>
-      </c>
-      <c r="J12" s="26">
-        <v>15</v>
       </c>
       <c r="K12" s="27" t="e">
         <f>range1_DISCOUNTPRICE</f>
@@ -1048,7 +1177,7 @@
       <c r="N12" s="28"/>
       <c r="O12" s="28">
         <f>IF(N12&lt;&gt;1,ROUND(I12*J12,2),0)</f>
-        <v>150</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13" ht="12.75" customHeight="1">
@@ -1066,10 +1195,10 @@
         <v>15</v>
       </c>
       <c r="I13" s="26">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="J13" s="26">
-        <v>1.5600000000000001</v>
+        <v>1</v>
       </c>
       <c r="K13" s="27" t="e">
         <f>range1_DISCOUNTPRICE</f>
@@ -1085,821 +1214,1713 @@
       <c r="N13" s="28"/>
       <c r="O13" s="28">
         <f>IF(N13&lt;&gt;1,ROUND(I13*J13,2),0)</f>
-        <v>10.92</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" ht="12.75" customHeight="1">
-      <c r="B14" s="29"/>
-      <c r="C14" s="30"/>
-      <c r="D14" s="30"/>
-      <c r="E14" s="30"/>
-      <c r="F14" s="31"/>
-      <c r="G14" s="31"/>
-      <c r="H14" s="31"/>
-      <c r="I14" s="32" t="s">
+      <c r="B14" s="22">
+        <v>4</v>
+      </c>
+      <c r="C14" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="J14" s="32"/>
-      <c r="K14" s="33" t="e">
-        <f>SUM(K11:K13)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="L14" s="33"/>
-      <c r="M14" s="33">
-        <f>SUM(M11:M13)</f>
-        <v>0</v>
-      </c>
-      <c r="N14" s="33"/>
-      <c r="O14" s="33">
-        <f>SUM(O11:O13)</f>
-        <v>168.91999999999999</v>
+      <c r="D14" s="24"/>
+      <c r="E14" s="24"/>
+      <c r="F14" s="24"/>
+      <c r="G14" s="25"/>
+      <c r="H14" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="I14" s="26">
+        <v>1</v>
+      </c>
+      <c r="J14" s="26">
+        <v>0</v>
+      </c>
+      <c r="K14" s="27" t="e">
+        <f>range1_DISCOUNTPRICE</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="L14" s="27">
+        <v>0</v>
+      </c>
+      <c r="M14" s="28">
+        <f>ROUND(O14*L14/100,2)</f>
+        <v>0</v>
+      </c>
+      <c r="N14" s="28"/>
+      <c r="O14" s="28">
+        <f>IF(N14&lt;&gt;1,ROUND(I14*J14,2),0)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="15" ht="12.75" customHeight="1">
-      <c r="B15" s="34"/>
-      <c r="D15" s="34"/>
-      <c r="E15" s="34"/>
-      <c r="F15" s="35"/>
-      <c r="G15" s="35"/>
-      <c r="H15" s="35"/>
-      <c r="I15" s="32" t="str">
+      <c r="B15" s="22">
+        <v>5</v>
+      </c>
+      <c r="C15" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="D15" s="24"/>
+      <c r="E15" s="24"/>
+      <c r="F15" s="24"/>
+      <c r="G15" s="25"/>
+      <c r="H15" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="I15" s="26">
+        <v>1</v>
+      </c>
+      <c r="J15" s="26">
+        <v>10</v>
+      </c>
+      <c r="K15" s="27" t="e">
+        <f>range1_DISCOUNTPRICE</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="L15" s="27">
+        <v>0</v>
+      </c>
+      <c r="M15" s="28">
+        <f>ROUND(O15*L15/100,2)</f>
+        <v>0</v>
+      </c>
+      <c r="N15" s="28"/>
+      <c r="O15" s="28">
+        <f>IF(N15&lt;&gt;1,ROUND(I15*J15,2),0)</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" ht="12.75" customHeight="1">
+      <c r="B16" s="22">
+        <v>6</v>
+      </c>
+      <c r="C16" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="D16" s="24"/>
+      <c r="E16" s="24"/>
+      <c r="F16" s="24"/>
+      <c r="G16" s="25"/>
+      <c r="H16" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="I16" s="26">
+        <v>1</v>
+      </c>
+      <c r="J16" s="26">
+        <v>10</v>
+      </c>
+      <c r="K16" s="27" t="e">
+        <f>range1_DISCOUNTPRICE</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="L16" s="27">
+        <v>0</v>
+      </c>
+      <c r="M16" s="28">
+        <f>ROUND(O16*L16/100,2)</f>
+        <v>0</v>
+      </c>
+      <c r="N16" s="28"/>
+      <c r="O16" s="28">
+        <f>IF(N16&lt;&gt;1,ROUND(I16*J16,2),0)</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" ht="12.75" customHeight="1">
+      <c r="B17" s="22">
+        <v>7</v>
+      </c>
+      <c r="C17" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="D17" s="24"/>
+      <c r="E17" s="24"/>
+      <c r="F17" s="24"/>
+      <c r="G17" s="25"/>
+      <c r="H17" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="I17" s="26">
+        <v>1</v>
+      </c>
+      <c r="J17" s="26">
+        <v>1</v>
+      </c>
+      <c r="K17" s="27" t="e">
+        <f>range1_DISCOUNTPRICE</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="L17" s="27">
+        <v>0</v>
+      </c>
+      <c r="M17" s="28">
+        <f>ROUND(O17*L17/100,2)</f>
+        <v>0</v>
+      </c>
+      <c r="N17" s="28"/>
+      <c r="O17" s="28">
+        <f>IF(N17&lt;&gt;1,ROUND(I17*J17,2),0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" ht="12.75" customHeight="1">
+      <c r="B18" s="22">
+        <v>8</v>
+      </c>
+      <c r="C18" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="D18" s="24"/>
+      <c r="E18" s="24"/>
+      <c r="F18" s="24"/>
+      <c r="G18" s="25"/>
+      <c r="H18" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="I18" s="26">
+        <v>1</v>
+      </c>
+      <c r="J18" s="26">
+        <v>1</v>
+      </c>
+      <c r="K18" s="27" t="e">
+        <f>range1_DISCOUNTPRICE</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="L18" s="27">
+        <v>0</v>
+      </c>
+      <c r="M18" s="28">
+        <f>ROUND(O18*L18/100,2)</f>
+        <v>0</v>
+      </c>
+      <c r="N18" s="28"/>
+      <c r="O18" s="28">
+        <f>IF(N18&lt;&gt;1,ROUND(I18*J18,2),0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" ht="12.75" customHeight="1">
+      <c r="B19" s="22">
+        <v>9</v>
+      </c>
+      <c r="C19" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="D19" s="24"/>
+      <c r="E19" s="24"/>
+      <c r="F19" s="24"/>
+      <c r="G19" s="25"/>
+      <c r="H19" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="I19" s="26">
+        <v>1</v>
+      </c>
+      <c r="J19" s="26">
+        <v>1</v>
+      </c>
+      <c r="K19" s="27" t="e">
+        <f>range1_DISCOUNTPRICE</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="L19" s="27">
+        <v>0</v>
+      </c>
+      <c r="M19" s="28">
+        <f>ROUND(O19*L19/100,2)</f>
+        <v>0</v>
+      </c>
+      <c r="N19" s="28"/>
+      <c r="O19" s="28">
+        <f>IF(N19&lt;&gt;1,ROUND(I19*J19,2),0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" ht="12.75" customHeight="1">
+      <c r="B20" s="22">
+        <v>10</v>
+      </c>
+      <c r="C20" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="D20" s="24"/>
+      <c r="E20" s="24"/>
+      <c r="F20" s="24"/>
+      <c r="G20" s="25"/>
+      <c r="H20" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="I20" s="26">
+        <v>1</v>
+      </c>
+      <c r="J20" s="26">
+        <v>1</v>
+      </c>
+      <c r="K20" s="27" t="e">
+        <f>range1_DISCOUNTPRICE</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="L20" s="27">
+        <v>0</v>
+      </c>
+      <c r="M20" s="28">
+        <f>ROUND(O20*L20/100,2)</f>
+        <v>0</v>
+      </c>
+      <c r="N20" s="28"/>
+      <c r="O20" s="28">
+        <f>IF(N20&lt;&gt;1,ROUND(I20*J20,2),0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" ht="12.75" customHeight="1">
+      <c r="B21" s="22">
+        <v>11</v>
+      </c>
+      <c r="C21" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" s="24"/>
+      <c r="E21" s="24"/>
+      <c r="F21" s="24"/>
+      <c r="G21" s="25"/>
+      <c r="H21" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="I21" s="26">
+        <v>1</v>
+      </c>
+      <c r="J21" s="26">
+        <v>1</v>
+      </c>
+      <c r="K21" s="27" t="e">
+        <f>range1_DISCOUNTPRICE</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="L21" s="27">
+        <v>0</v>
+      </c>
+      <c r="M21" s="28">
+        <f>ROUND(O21*L21/100,2)</f>
+        <v>0</v>
+      </c>
+      <c r="N21" s="28"/>
+      <c r="O21" s="28">
+        <f>IF(N21&lt;&gt;1,ROUND(I21*J21,2),0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" ht="12.75" customHeight="1">
+      <c r="B22" s="22">
+        <v>12</v>
+      </c>
+      <c r="C22" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" s="24"/>
+      <c r="E22" s="24"/>
+      <c r="F22" s="24"/>
+      <c r="G22" s="25"/>
+      <c r="H22" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="I22" s="26">
+        <v>1</v>
+      </c>
+      <c r="J22" s="26">
+        <v>1</v>
+      </c>
+      <c r="K22" s="27" t="e">
+        <f>range1_DISCOUNTPRICE</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="L22" s="27">
+        <v>0</v>
+      </c>
+      <c r="M22" s="28">
+        <f>ROUND(O22*L22/100,2)</f>
+        <v>0</v>
+      </c>
+      <c r="N22" s="28"/>
+      <c r="O22" s="28">
+        <f>IF(N22&lt;&gt;1,ROUND(I22*J22,2),0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" ht="12.75" customHeight="1">
+      <c r="B23" s="22">
+        <v>13</v>
+      </c>
+      <c r="C23" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23" s="24"/>
+      <c r="E23" s="24"/>
+      <c r="F23" s="24"/>
+      <c r="G23" s="25"/>
+      <c r="H23" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="I23" s="26">
+        <v>1</v>
+      </c>
+      <c r="J23" s="26">
+        <v>1</v>
+      </c>
+      <c r="K23" s="27" t="e">
+        <f>range1_DISCOUNTPRICE</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="L23" s="27">
+        <v>0</v>
+      </c>
+      <c r="M23" s="28">
+        <f>ROUND(O23*L23/100,2)</f>
+        <v>0</v>
+      </c>
+      <c r="N23" s="28"/>
+      <c r="O23" s="28">
+        <f>IF(N23&lt;&gt;1,ROUND(I23*J23,2),0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" ht="12.75" customHeight="1">
+      <c r="B24" s="22">
+        <v>14</v>
+      </c>
+      <c r="C24" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="D24" s="24"/>
+      <c r="E24" s="24"/>
+      <c r="F24" s="24"/>
+      <c r="G24" s="25"/>
+      <c r="H24" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="I24" s="26">
+        <v>1</v>
+      </c>
+      <c r="J24" s="26">
+        <v>1</v>
+      </c>
+      <c r="K24" s="27" t="e">
+        <f>range1_DISCOUNTPRICE</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="L24" s="27">
+        <v>0</v>
+      </c>
+      <c r="M24" s="28">
+        <f>ROUND(O24*L24/100,2)</f>
+        <v>0</v>
+      </c>
+      <c r="N24" s="28"/>
+      <c r="O24" s="28">
+        <f>IF(N24&lt;&gt;1,ROUND(I24*J24,2),0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" ht="12.75" customHeight="1">
+      <c r="B25" s="22">
+        <v>15</v>
+      </c>
+      <c r="C25" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="D25" s="24"/>
+      <c r="E25" s="24"/>
+      <c r="F25" s="24"/>
+      <c r="G25" s="25"/>
+      <c r="H25" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="I25" s="26">
+        <v>1</v>
+      </c>
+      <c r="J25" s="26">
+        <v>1</v>
+      </c>
+      <c r="K25" s="27" t="e">
+        <f>range1_DISCOUNTPRICE</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="L25" s="27">
+        <v>0</v>
+      </c>
+      <c r="M25" s="28">
+        <f>ROUND(O25*L25/100,2)</f>
+        <v>0</v>
+      </c>
+      <c r="N25" s="28"/>
+      <c r="O25" s="28">
+        <f>IF(N25&lt;&gt;1,ROUND(I25*J25,2),0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" ht="12.75" customHeight="1">
+      <c r="B26" s="22">
+        <v>16</v>
+      </c>
+      <c r="C26" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="D26" s="24"/>
+      <c r="E26" s="24"/>
+      <c r="F26" s="24"/>
+      <c r="G26" s="25"/>
+      <c r="H26" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="I26" s="26">
+        <v>1</v>
+      </c>
+      <c r="J26" s="26">
+        <v>1</v>
+      </c>
+      <c r="K26" s="27" t="e">
+        <f>range1_DISCOUNTPRICE</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="L26" s="27">
+        <v>0</v>
+      </c>
+      <c r="M26" s="28">
+        <f>ROUND(O26*L26/100,2)</f>
+        <v>0</v>
+      </c>
+      <c r="N26" s="28"/>
+      <c r="O26" s="28">
+        <f>IF(N26&lt;&gt;1,ROUND(I26*J26,2),0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" ht="12.75" customHeight="1">
+      <c r="B27" s="22">
+        <v>17</v>
+      </c>
+      <c r="C27" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="D27" s="24"/>
+      <c r="E27" s="24"/>
+      <c r="F27" s="24"/>
+      <c r="G27" s="25"/>
+      <c r="H27" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="I27" s="26">
+        <v>1</v>
+      </c>
+      <c r="J27" s="26">
+        <v>1</v>
+      </c>
+      <c r="K27" s="27" t="e">
+        <f>range1_DISCOUNTPRICE</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="L27" s="27">
+        <v>0</v>
+      </c>
+      <c r="M27" s="28">
+        <f>ROUND(O27*L27/100,2)</f>
+        <v>0</v>
+      </c>
+      <c r="N27" s="28"/>
+      <c r="O27" s="28">
+        <f>IF(N27&lt;&gt;1,ROUND(I27*J27,2),0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" ht="12.75" customHeight="1">
+      <c r="B28" s="22">
+        <v>18</v>
+      </c>
+      <c r="C28" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="D28" s="24"/>
+      <c r="E28" s="24"/>
+      <c r="F28" s="24"/>
+      <c r="G28" s="25"/>
+      <c r="H28" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="I28" s="26">
+        <v>1</v>
+      </c>
+      <c r="J28" s="26">
+        <v>1</v>
+      </c>
+      <c r="K28" s="27" t="e">
+        <f>range1_DISCOUNTPRICE</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="L28" s="27">
+        <v>0</v>
+      </c>
+      <c r="M28" s="28">
+        <f>ROUND(O28*L28/100,2)</f>
+        <v>0</v>
+      </c>
+      <c r="N28" s="28"/>
+      <c r="O28" s="28">
+        <f>IF(N28&lt;&gt;1,ROUND(I28*J28,2),0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" ht="12.75" customHeight="1">
+      <c r="B29" s="22">
+        <v>19</v>
+      </c>
+      <c r="C29" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="D29" s="24"/>
+      <c r="E29" s="24"/>
+      <c r="F29" s="24"/>
+      <c r="G29" s="25"/>
+      <c r="H29" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="I29" s="26">
+        <v>1</v>
+      </c>
+      <c r="J29" s="26">
+        <v>1</v>
+      </c>
+      <c r="K29" s="27" t="e">
+        <f>range1_DISCOUNTPRICE</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="L29" s="27">
+        <v>0</v>
+      </c>
+      <c r="M29" s="28">
+        <f>ROUND(O29*L29/100,2)</f>
+        <v>0</v>
+      </c>
+      <c r="N29" s="28"/>
+      <c r="O29" s="28">
+        <f>IF(N29&lt;&gt;1,ROUND(I29*J29,2),0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" ht="12.75" customHeight="1">
+      <c r="B30" s="22">
+        <v>20</v>
+      </c>
+      <c r="C30" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="D30" s="24"/>
+      <c r="E30" s="24"/>
+      <c r="F30" s="24"/>
+      <c r="G30" s="25"/>
+      <c r="H30" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="I30" s="26">
+        <v>1</v>
+      </c>
+      <c r="J30" s="26">
+        <v>1</v>
+      </c>
+      <c r="K30" s="27" t="e">
+        <f>range1_DISCOUNTPRICE</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="L30" s="27">
+        <v>0</v>
+      </c>
+      <c r="M30" s="28">
+        <f>ROUND(O30*L30/100,2)</f>
+        <v>0</v>
+      </c>
+      <c r="N30" s="28"/>
+      <c r="O30" s="28">
+        <f>IF(N30&lt;&gt;1,ROUND(I30*J30,2),0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" ht="12.75" customHeight="1">
+      <c r="B31" s="22">
+        <v>21</v>
+      </c>
+      <c r="C31" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="D31" s="24"/>
+      <c r="E31" s="24"/>
+      <c r="F31" s="24"/>
+      <c r="G31" s="25"/>
+      <c r="H31" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="I31" s="26">
+        <v>1</v>
+      </c>
+      <c r="J31" s="26">
+        <v>1</v>
+      </c>
+      <c r="K31" s="27" t="e">
+        <f>range1_DISCOUNTPRICE</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="L31" s="27">
+        <v>0</v>
+      </c>
+      <c r="M31" s="28">
+        <f>ROUND(O31*L31/100,2)</f>
+        <v>0</v>
+      </c>
+      <c r="N31" s="28"/>
+      <c r="O31" s="28">
+        <f>IF(N31&lt;&gt;1,ROUND(I31*J31,2),0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" ht="12.75" customHeight="1">
+      <c r="B32" s="22">
+        <v>22</v>
+      </c>
+      <c r="C32" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="D32" s="24"/>
+      <c r="E32" s="24"/>
+      <c r="F32" s="24"/>
+      <c r="G32" s="25"/>
+      <c r="H32" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="I32" s="26">
+        <v>1</v>
+      </c>
+      <c r="J32" s="26">
+        <v>1</v>
+      </c>
+      <c r="K32" s="27" t="e">
+        <f>range1_DISCOUNTPRICE</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="L32" s="27">
+        <v>0</v>
+      </c>
+      <c r="M32" s="28">
+        <f>ROUND(O32*L32/100,2)</f>
+        <v>0</v>
+      </c>
+      <c r="N32" s="28"/>
+      <c r="O32" s="28">
+        <f>IF(N32&lt;&gt;1,ROUND(I32*J32,2),0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" ht="12.75" customHeight="1">
+      <c r="B33" s="22">
+        <v>23</v>
+      </c>
+      <c r="C33" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="D33" s="24"/>
+      <c r="E33" s="24"/>
+      <c r="F33" s="24"/>
+      <c r="G33" s="25"/>
+      <c r="H33" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="I33" s="26">
+        <v>1</v>
+      </c>
+      <c r="J33" s="26">
+        <v>1</v>
+      </c>
+      <c r="K33" s="27" t="e">
+        <f>range1_DISCOUNTPRICE</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="L33" s="27">
+        <v>0</v>
+      </c>
+      <c r="M33" s="28">
+        <f>ROUND(O33*L33/100,2)</f>
+        <v>0</v>
+      </c>
+      <c r="N33" s="28"/>
+      <c r="O33" s="28">
+        <f>IF(N33&lt;&gt;1,ROUND(I33*J33,2),0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" ht="12.75" customHeight="1">
+      <c r="B34" s="22">
+        <v>24</v>
+      </c>
+      <c r="C34" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="D34" s="24"/>
+      <c r="E34" s="24"/>
+      <c r="F34" s="24"/>
+      <c r="G34" s="25"/>
+      <c r="H34" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="I34" s="26">
+        <v>1</v>
+      </c>
+      <c r="J34" s="26">
+        <v>1</v>
+      </c>
+      <c r="K34" s="27" t="e">
+        <f>range1_DISCOUNTPRICE</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="L34" s="27">
+        <v>0</v>
+      </c>
+      <c r="M34" s="28">
+        <f>ROUND(O34*L34/100,2)</f>
+        <v>0</v>
+      </c>
+      <c r="N34" s="28"/>
+      <c r="O34" s="28">
+        <f>IF(N34&lt;&gt;1,ROUND(I34*J34,2),0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" ht="12.75" customHeight="1">
+      <c r="B35" s="22">
+        <v>25</v>
+      </c>
+      <c r="C35" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="D35" s="24"/>
+      <c r="E35" s="24"/>
+      <c r="F35" s="24"/>
+      <c r="G35" s="25"/>
+      <c r="H35" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="I35" s="26">
+        <v>1</v>
+      </c>
+      <c r="J35" s="26">
+        <v>1</v>
+      </c>
+      <c r="K35" s="27" t="e">
+        <f>range1_DISCOUNTPRICE</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="L35" s="27">
+        <v>0</v>
+      </c>
+      <c r="M35" s="28">
+        <f>ROUND(O35*L35/100,2)</f>
+        <v>0</v>
+      </c>
+      <c r="N35" s="28"/>
+      <c r="O35" s="28">
+        <f>IF(N35&lt;&gt;1,ROUND(I35*J35,2),0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" ht="12.75" customHeight="1">
+      <c r="B36" s="22">
+        <v>26</v>
+      </c>
+      <c r="C36" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="D36" s="24"/>
+      <c r="E36" s="24"/>
+      <c r="F36" s="24"/>
+      <c r="G36" s="25"/>
+      <c r="H36" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="I36" s="26">
+        <v>1</v>
+      </c>
+      <c r="J36" s="26">
+        <v>1</v>
+      </c>
+      <c r="K36" s="27" t="e">
+        <f>range1_DISCOUNTPRICE</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="L36" s="27">
+        <v>0</v>
+      </c>
+      <c r="M36" s="28">
+        <f>ROUND(O36*L36/100,2)</f>
+        <v>0</v>
+      </c>
+      <c r="N36" s="28"/>
+      <c r="O36" s="28">
+        <f>IF(N36&lt;&gt;1,ROUND(I36*J36,2),0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" ht="12.75" customHeight="1">
+      <c r="B37" s="22">
+        <v>27</v>
+      </c>
+      <c r="C37" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="D37" s="24"/>
+      <c r="E37" s="24"/>
+      <c r="F37" s="24"/>
+      <c r="G37" s="25"/>
+      <c r="H37" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="I37" s="26">
+        <v>1</v>
+      </c>
+      <c r="J37" s="26">
+        <v>1</v>
+      </c>
+      <c r="K37" s="27" t="e">
+        <f>range1_DISCOUNTPRICE</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="L37" s="27">
+        <v>0</v>
+      </c>
+      <c r="M37" s="28">
+        <f>ROUND(O37*L37/100,2)</f>
+        <v>0</v>
+      </c>
+      <c r="N37" s="28"/>
+      <c r="O37" s="28">
+        <f>IF(N37&lt;&gt;1,ROUND(I37*J37,2),0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" ht="12.75" customHeight="1">
+      <c r="B38" s="22">
+        <v>28</v>
+      </c>
+      <c r="C38" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="D38" s="24"/>
+      <c r="E38" s="24"/>
+      <c r="F38" s="24"/>
+      <c r="G38" s="25"/>
+      <c r="H38" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="I38" s="26">
+        <v>1</v>
+      </c>
+      <c r="J38" s="26">
+        <v>1</v>
+      </c>
+      <c r="K38" s="27" t="e">
+        <f>range1_DISCOUNTPRICE</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="L38" s="27">
+        <v>0</v>
+      </c>
+      <c r="M38" s="28">
+        <f>ROUND(O38*L38/100,2)</f>
+        <v>0</v>
+      </c>
+      <c r="N38" s="28"/>
+      <c r="O38" s="28">
+        <f>IF(N38&lt;&gt;1,ROUND(I38*J38,2),0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" ht="12.75" customHeight="1">
+      <c r="B39" s="22">
+        <v>29</v>
+      </c>
+      <c r="C39" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="D39" s="24"/>
+      <c r="E39" s="24"/>
+      <c r="F39" s="24"/>
+      <c r="G39" s="25"/>
+      <c r="H39" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="I39" s="26">
+        <v>1</v>
+      </c>
+      <c r="J39" s="26">
+        <v>11</v>
+      </c>
+      <c r="K39" s="27" t="e">
+        <f>range1_DISCOUNTPRICE</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="L39" s="27">
+        <v>0</v>
+      </c>
+      <c r="M39" s="28">
+        <f>ROUND(O39*L39/100,2)</f>
+        <v>0</v>
+      </c>
+      <c r="N39" s="28"/>
+      <c r="O39" s="28">
+        <f>IF(N39&lt;&gt;1,ROUND(I39*J39,2),0)</f>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="40" ht="12.75" customHeight="1">
+      <c r="B40" s="22">
+        <v>30</v>
+      </c>
+      <c r="C40" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="D40" s="24"/>
+      <c r="E40" s="24"/>
+      <c r="F40" s="24"/>
+      <c r="G40" s="25"/>
+      <c r="H40" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="I40" s="26">
+        <v>1</v>
+      </c>
+      <c r="J40" s="26">
+        <v>1</v>
+      </c>
+      <c r="K40" s="27" t="e">
+        <f>range1_DISCOUNTPRICE</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="L40" s="27">
+        <v>0</v>
+      </c>
+      <c r="M40" s="28">
+        <f>ROUND(O40*L40/100,2)</f>
+        <v>0</v>
+      </c>
+      <c r="N40" s="28"/>
+      <c r="O40" s="28">
+        <f>IF(N40&lt;&gt;1,ROUND(I40*J40,2),0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" ht="12.75" customHeight="1">
+      <c r="B41" s="22">
+        <v>31</v>
+      </c>
+      <c r="C41" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="D41" s="24"/>
+      <c r="E41" s="24"/>
+      <c r="F41" s="24"/>
+      <c r="G41" s="25"/>
+      <c r="H41" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="I41" s="26">
+        <v>1</v>
+      </c>
+      <c r="J41" s="26">
+        <v>1</v>
+      </c>
+      <c r="K41" s="27" t="e">
+        <f>range1_DISCOUNTPRICE</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="L41" s="27">
+        <v>0</v>
+      </c>
+      <c r="M41" s="28">
+        <f>ROUND(O41*L41/100,2)</f>
+        <v>0</v>
+      </c>
+      <c r="N41" s="28"/>
+      <c r="O41" s="28">
+        <f>IF(N41&lt;&gt;1,ROUND(I41*J41,2),0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" ht="12.75" customHeight="1">
+      <c r="B42" s="22">
+        <v>32</v>
+      </c>
+      <c r="C42" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="D42" s="24"/>
+      <c r="E42" s="24"/>
+      <c r="F42" s="24"/>
+      <c r="G42" s="25"/>
+      <c r="H42" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="I42" s="26">
+        <v>1</v>
+      </c>
+      <c r="J42" s="26">
+        <v>1</v>
+      </c>
+      <c r="K42" s="27" t="e">
+        <f>range1_DISCOUNTPRICE</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="L42" s="27">
+        <v>0</v>
+      </c>
+      <c r="M42" s="28">
+        <f>ROUND(O42*L42/100,2)</f>
+        <v>0</v>
+      </c>
+      <c r="N42" s="28"/>
+      <c r="O42" s="28">
+        <f>IF(N42&lt;&gt;1,ROUND(I42*J42,2),0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" ht="12.75" customHeight="1">
+      <c r="B43" s="22">
+        <v>33</v>
+      </c>
+      <c r="C43" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="D43" s="24"/>
+      <c r="E43" s="24"/>
+      <c r="F43" s="24"/>
+      <c r="G43" s="25"/>
+      <c r="H43" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="I43" s="26">
+        <v>1</v>
+      </c>
+      <c r="J43" s="26">
+        <v>1</v>
+      </c>
+      <c r="K43" s="27" t="e">
+        <f>range1_DISCOUNTPRICE</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="L43" s="27">
+        <v>0</v>
+      </c>
+      <c r="M43" s="28">
+        <f>ROUND(O43*L43/100,2)</f>
+        <v>0</v>
+      </c>
+      <c r="N43" s="28"/>
+      <c r="O43" s="28">
+        <f>IF(N43&lt;&gt;1,ROUND(I43*J43,2),0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" ht="12.75" customHeight="1">
+      <c r="B44" s="22">
+        <v>34</v>
+      </c>
+      <c r="C44" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="D44" s="24"/>
+      <c r="E44" s="24"/>
+      <c r="F44" s="24"/>
+      <c r="G44" s="25"/>
+      <c r="H44" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="I44" s="26">
+        <v>1</v>
+      </c>
+      <c r="J44" s="26">
+        <v>1</v>
+      </c>
+      <c r="K44" s="27" t="e">
+        <f>range1_DISCOUNTPRICE</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="L44" s="27">
+        <v>0</v>
+      </c>
+      <c r="M44" s="28">
+        <f>ROUND(O44*L44/100,2)</f>
+        <v>0</v>
+      </c>
+      <c r="N44" s="28"/>
+      <c r="O44" s="28">
+        <f>IF(N44&lt;&gt;1,ROUND(I44*J44,2),0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" ht="12.75" customHeight="1">
+      <c r="B45" s="22">
+        <v>35</v>
+      </c>
+      <c r="C45" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="D45" s="24"/>
+      <c r="E45" s="24"/>
+      <c r="F45" s="24"/>
+      <c r="G45" s="25"/>
+      <c r="H45" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="I45" s="26">
+        <v>1</v>
+      </c>
+      <c r="J45" s="26">
+        <v>1</v>
+      </c>
+      <c r="K45" s="27" t="e">
+        <f>range1_DISCOUNTPRICE</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="L45" s="27">
+        <v>0</v>
+      </c>
+      <c r="M45" s="28">
+        <f>ROUND(O45*L45/100,2)</f>
+        <v>0</v>
+      </c>
+      <c r="N45" s="28"/>
+      <c r="O45" s="28">
+        <f>IF(N45&lt;&gt;1,ROUND(I45*J45,2),0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" ht="12.75" customHeight="1">
+      <c r="B46" s="22">
+        <v>36</v>
+      </c>
+      <c r="C46" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="D46" s="24"/>
+      <c r="E46" s="24"/>
+      <c r="F46" s="24"/>
+      <c r="G46" s="25"/>
+      <c r="H46" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="I46" s="26">
+        <v>1</v>
+      </c>
+      <c r="J46" s="26">
+        <v>1</v>
+      </c>
+      <c r="K46" s="27" t="e">
+        <f>range1_DISCOUNTPRICE</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="L46" s="27">
+        <v>0</v>
+      </c>
+      <c r="M46" s="28">
+        <f>ROUND(O46*L46/100,2)</f>
+        <v>0</v>
+      </c>
+      <c r="N46" s="28"/>
+      <c r="O46" s="28">
+        <f>IF(N46&lt;&gt;1,ROUND(I46*J46,2),0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" ht="12.75" customHeight="1">
+      <c r="B47" s="22">
+        <v>37</v>
+      </c>
+      <c r="C47" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="D47" s="24"/>
+      <c r="E47" s="24"/>
+      <c r="F47" s="24"/>
+      <c r="G47" s="25"/>
+      <c r="H47" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="I47" s="26">
+        <v>1</v>
+      </c>
+      <c r="J47" s="26">
+        <v>1</v>
+      </c>
+      <c r="K47" s="27" t="e">
+        <f>range1_DISCOUNTPRICE</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="L47" s="27">
+        <v>0</v>
+      </c>
+      <c r="M47" s="28">
+        <f>ROUND(O47*L47/100,2)</f>
+        <v>0</v>
+      </c>
+      <c r="N47" s="28"/>
+      <c r="O47" s="28">
+        <f>IF(N47&lt;&gt;1,ROUND(I47*J47,2),0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" ht="12.75" customHeight="1">
+      <c r="B48" s="22">
+        <v>38</v>
+      </c>
+      <c r="C48" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="D48" s="24"/>
+      <c r="E48" s="24"/>
+      <c r="F48" s="24"/>
+      <c r="G48" s="25"/>
+      <c r="H48" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="I48" s="26">
+        <v>1</v>
+      </c>
+      <c r="J48" s="26">
+        <v>1</v>
+      </c>
+      <c r="K48" s="27" t="e">
+        <f>range1_DISCOUNTPRICE</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="L48" s="27">
+        <v>0</v>
+      </c>
+      <c r="M48" s="28">
+        <f>ROUND(O48*L48/100,2)</f>
+        <v>0</v>
+      </c>
+      <c r="N48" s="28"/>
+      <c r="O48" s="28">
+        <f>IF(N48&lt;&gt;1,ROUND(I48*J48,2),0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" ht="12.75" customHeight="1">
+      <c r="B49" s="22">
+        <v>39</v>
+      </c>
+      <c r="C49" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="D49" s="24"/>
+      <c r="E49" s="24"/>
+      <c r="F49" s="24"/>
+      <c r="G49" s="25"/>
+      <c r="H49" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="I49" s="26">
+        <v>1</v>
+      </c>
+      <c r="J49" s="26">
+        <v>1</v>
+      </c>
+      <c r="K49" s="27" t="e">
+        <f>range1_DISCOUNTPRICE</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="L49" s="27">
+        <v>0</v>
+      </c>
+      <c r="M49" s="28">
+        <f>ROUND(O49*L49/100,2)</f>
+        <v>0</v>
+      </c>
+      <c r="N49" s="28"/>
+      <c r="O49" s="28">
+        <f>IF(N49&lt;&gt;1,ROUND(I49*J49,2),0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" ht="12.75" customHeight="1">
+      <c r="B50" s="22">
+        <v>40</v>
+      </c>
+      <c r="C50" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="D50" s="24"/>
+      <c r="E50" s="24"/>
+      <c r="F50" s="24"/>
+      <c r="G50" s="25"/>
+      <c r="H50" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="I50" s="26">
+        <v>1</v>
+      </c>
+      <c r="J50" s="26">
+        <v>1</v>
+      </c>
+      <c r="K50" s="27" t="e">
+        <f>range1_DISCOUNTPRICE</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="L50" s="27">
+        <v>0</v>
+      </c>
+      <c r="M50" s="28">
+        <f>ROUND(O50*L50/100,2)</f>
+        <v>0</v>
+      </c>
+      <c r="N50" s="28"/>
+      <c r="O50" s="28">
+        <f>IF(N50&lt;&gt;1,ROUND(I50*J50,2),0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" ht="12.75" customHeight="1">
+      <c r="B51" s="22">
+        <v>41</v>
+      </c>
+      <c r="C51" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="D51" s="24"/>
+      <c r="E51" s="24"/>
+      <c r="F51" s="24"/>
+      <c r="G51" s="25"/>
+      <c r="H51" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="I51" s="26">
+        <v>1</v>
+      </c>
+      <c r="J51" s="26">
+        <v>1</v>
+      </c>
+      <c r="K51" s="27" t="e">
+        <f>range1_DISCOUNTPRICE</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="L51" s="27">
+        <v>0</v>
+      </c>
+      <c r="M51" s="28">
+        <f>ROUND(O51*L51/100,2)</f>
+        <v>0</v>
+      </c>
+      <c r="N51" s="28"/>
+      <c r="O51" s="28">
+        <f>IF(N51&lt;&gt;1,ROUND(I51*J51,2),0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" ht="12.75" customHeight="1">
+      <c r="B52" s="22">
+        <v>42</v>
+      </c>
+      <c r="C52" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="D52" s="24"/>
+      <c r="E52" s="24"/>
+      <c r="F52" s="24"/>
+      <c r="G52" s="25"/>
+      <c r="H52" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="I52" s="26">
+        <v>1</v>
+      </c>
+      <c r="J52" s="26">
+        <v>1</v>
+      </c>
+      <c r="K52" s="27" t="e">
+        <f>range1_DISCOUNTPRICE</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="L52" s="27">
+        <v>0</v>
+      </c>
+      <c r="M52" s="28">
+        <f>ROUND(O52*L52/100,2)</f>
+        <v>0</v>
+      </c>
+      <c r="N52" s="28"/>
+      <c r="O52" s="28">
+        <f>IF(N52&lt;&gt;1,ROUND(I52*J52,2),0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" ht="12.75" customHeight="1">
+      <c r="B53" s="22">
+        <v>43</v>
+      </c>
+      <c r="C53" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="D53" s="24"/>
+      <c r="E53" s="24"/>
+      <c r="F53" s="24"/>
+      <c r="G53" s="25"/>
+      <c r="H53" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="I53" s="26">
+        <v>1</v>
+      </c>
+      <c r="J53" s="26">
+        <v>1</v>
+      </c>
+      <c r="K53" s="27" t="e">
+        <f>range1_DISCOUNTPRICE</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="L53" s="27">
+        <v>0</v>
+      </c>
+      <c r="M53" s="28">
+        <f>ROUND(O53*L53/100,2)</f>
+        <v>0</v>
+      </c>
+      <c r="N53" s="28"/>
+      <c r="O53" s="28">
+        <f>IF(N53&lt;&gt;1,ROUND(I53*J53,2),0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" ht="12.75" customHeight="1">
+      <c r="B54" s="22">
+        <v>44</v>
+      </c>
+      <c r="C54" s="23" t="s">
+        <v>58</v>
+      </c>
+      <c r="D54" s="24"/>
+      <c r="E54" s="24"/>
+      <c r="F54" s="24"/>
+      <c r="G54" s="25"/>
+      <c r="H54" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="I54" s="26">
+        <v>1</v>
+      </c>
+      <c r="J54" s="26">
+        <v>1</v>
+      </c>
+      <c r="K54" s="27" t="e">
+        <f>range1_DISCOUNTPRICE</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="L54" s="27">
+        <v>0</v>
+      </c>
+      <c r="M54" s="28">
+        <f>ROUND(O54*L54/100,2)</f>
+        <v>0</v>
+      </c>
+      <c r="N54" s="28"/>
+      <c r="O54" s="28">
+        <f>IF(N54&lt;&gt;1,ROUND(I54*J54,2),0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" ht="12.75" customHeight="1">
+      <c r="B55" s="22">
+        <v>45</v>
+      </c>
+      <c r="C55" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="D55" s="24"/>
+      <c r="E55" s="24"/>
+      <c r="F55" s="24"/>
+      <c r="G55" s="25"/>
+      <c r="H55" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="I55" s="26">
+        <v>1</v>
+      </c>
+      <c r="J55" s="26">
+        <v>1</v>
+      </c>
+      <c r="K55" s="27" t="e">
+        <f>range1_DISCOUNTPRICE</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="L55" s="27">
+        <v>0</v>
+      </c>
+      <c r="M55" s="28">
+        <f>ROUND(O55*L55/100,2)</f>
+        <v>0</v>
+      </c>
+      <c r="N55" s="28"/>
+      <c r="O55" s="28">
+        <f>IF(N55&lt;&gt;1,ROUND(I55*J55,2),0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" ht="12.75" customHeight="1">
+      <c r="B56" s="22">
+        <v>46</v>
+      </c>
+      <c r="C56" s="23" t="s">
+        <v>60</v>
+      </c>
+      <c r="D56" s="24"/>
+      <c r="E56" s="24"/>
+      <c r="F56" s="24"/>
+      <c r="G56" s="25"/>
+      <c r="H56" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="I56" s="26">
+        <v>1</v>
+      </c>
+      <c r="J56" s="26">
+        <v>1</v>
+      </c>
+      <c r="K56" s="27" t="e">
+        <f>range1_DISCOUNTPRICE</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="L56" s="27">
+        <v>0</v>
+      </c>
+      <c r="M56" s="28">
+        <f>ROUND(O56*L56/100,2)</f>
+        <v>0</v>
+      </c>
+      <c r="N56" s="28"/>
+      <c r="O56" s="28">
+        <f>IF(N56&lt;&gt;1,ROUND(I56*J56,2),0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" ht="12.75" customHeight="1">
+      <c r="B57" s="29"/>
+      <c r="C57" s="30"/>
+      <c r="D57" s="30"/>
+      <c r="E57" s="30"/>
+      <c r="F57" s="31"/>
+      <c r="G57" s="31"/>
+      <c r="H57" s="31"/>
+      <c r="I57" s="32" t="s">
+        <v>61</v>
+      </c>
+      <c r="J57" s="32"/>
+      <c r="K57" s="33" t="e">
+        <f>SUM(K11:K56)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="L57" s="33"/>
+      <c r="M57" s="33">
+        <f>SUM(M11:M56)</f>
+        <v>0</v>
+      </c>
+      <c r="N57" s="33"/>
+      <c r="O57" s="33">
+        <f>SUM(O11:O56)</f>
+        <v>82</v>
+      </c>
+    </row>
+    <row r="58" ht="12.75" customHeight="1">
+      <c r="B58" s="34"/>
+      <c r="D58" s="34"/>
+      <c r="E58" s="34"/>
+      <c r="F58" s="35"/>
+      <c r="G58" s="35"/>
+      <c r="H58" s="35"/>
+      <c r="I58" s="32" t="str">
         <f>"Всього ПДВ "&amp;0&amp;"%"</f>
         <v>Всього ПДВ 0%</v>
       </c>
-      <c r="J15" s="32"/>
-      <c r="K15" s="36"/>
-      <c r="L15" s="36"/>
-      <c r="M15" s="36"/>
-      <c r="N15" s="36"/>
-      <c r="O15" s="37">
-        <f>M14</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" ht="12.75" customHeight="1">
-      <c r="H16" s="34"/>
-      <c r="I16" s="32" t="s">
-        <v>19</v>
-      </c>
-      <c r="J16" s="32"/>
-      <c r="K16" s="36"/>
-      <c r="L16" s="36"/>
-      <c r="M16" s="36"/>
-      <c r="N16" s="36"/>
-      <c r="O16" s="38">
-        <f>O14+O15</f>
-        <v>168.91999999999999</v>
-      </c>
-    </row>
-    <row r="17" ht="12.75" customHeight="1">
-      <c r="B17" s="39"/>
-      <c r="C17" s="39"/>
-      <c r="D17" s="39"/>
-      <c r="E17" s="39"/>
-      <c r="F17" s="39"/>
-      <c r="G17" s="39"/>
-      <c r="H17" s="35"/>
-      <c r="I17" s="35"/>
-      <c r="J17" s="35"/>
-      <c r="K17" s="35"/>
-      <c r="L17" s="35"/>
-      <c r="M17" s="35"/>
-      <c r="N17" s="35"/>
-      <c r="O17" s="35"/>
-    </row>
-    <row r="18" ht="12.75" customHeight="1">
-      <c r="B18" s="39"/>
-      <c r="C18" s="39"/>
-      <c r="D18" s="39"/>
-      <c r="E18" s="39"/>
-      <c r="F18" s="39"/>
-      <c r="G18" s="39"/>
-      <c r="H18" s="35"/>
-      <c r="I18" s="35"/>
-      <c r="J18" s="35"/>
-      <c r="K18" s="35"/>
-      <c r="L18" s="35"/>
-      <c r="M18" s="35"/>
-      <c r="N18" s="35"/>
-      <c r="O18" s="35"/>
-    </row>
-    <row r="19" ht="12.75" customHeight="1">
-      <c r="B19" s="39"/>
-      <c r="C19" s="39"/>
-      <c r="D19" s="39"/>
-      <c r="E19" s="39"/>
-      <c r="F19" s="39"/>
-      <c r="G19" s="39"/>
-      <c r="H19" s="35"/>
-      <c r="I19" s="35"/>
-      <c r="J19" s="35"/>
-      <c r="K19" s="35"/>
-      <c r="L19" s="35"/>
-      <c r="M19" s="35"/>
-      <c r="N19" s="35"/>
-      <c r="O19" s="35"/>
-    </row>
-    <row r="20" ht="12.75" customHeight="1">
-      <c r="A20" s="40"/>
-      <c r="B20" s="41"/>
-      <c r="C20" s="41"/>
-      <c r="D20" s="41"/>
-      <c r="E20" s="41"/>
-      <c r="F20" s="41"/>
-      <c r="G20" s="41"/>
-      <c r="H20" s="41"/>
-      <c r="I20" s="41"/>
-      <c r="J20" s="41"/>
-      <c r="K20" s="41"/>
-      <c r="L20" s="41"/>
-      <c r="M20" s="41"/>
-      <c r="N20" s="41"/>
-      <c r="O20" s="41"/>
-    </row>
-    <row r="21" ht="12.75" customHeight="1">
-      <c r="A21" s="40"/>
-      <c r="B21" s="42" t="s">
-        <v>20</v>
-      </c>
-      <c r="C21" s="42"/>
-      <c r="D21" s="43" t="str">
-        <f>IF(1 &lt; 0,"Admin"," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="E21" s="43"/>
-      <c r="F21" s="43"/>
-      <c r="G21" s="42" t="s">
-        <v>21</v>
-      </c>
-      <c r="H21" s="42"/>
-      <c r="I21" s="43" t="str">
-        <f>IF(1 &gt; 0,"Admin"," ")</f>
-        <v>Admin</v>
-      </c>
-      <c r="J21" s="43"/>
-      <c r="K21" s="43"/>
-      <c r="L21" s="43"/>
-      <c r="M21" s="43"/>
-      <c r="N21" s="43"/>
-      <c r="O21" s="43"/>
-    </row>
-    <row r="22" ht="12.75" customHeight="1">
-      <c r="B22" s="41"/>
-      <c r="C22" s="41"/>
-      <c r="D22" s="41"/>
-      <c r="E22" s="41"/>
-      <c r="F22" s="41"/>
-      <c r="G22" s="41"/>
-      <c r="H22" s="41"/>
-      <c r="I22" s="41"/>
-      <c r="J22" s="41"/>
-      <c r="K22" s="41"/>
-      <c r="L22" s="41"/>
-      <c r="M22" s="41"/>
-      <c r="N22" s="41"/>
-      <c r="O22" s="41"/>
-    </row>
-    <row r="23" ht="12.75" customHeight="1">
-      <c r="B23" s="41"/>
-      <c r="C23" s="41"/>
-      <c r="D23" s="41"/>
-      <c r="E23" s="41"/>
-      <c r="F23" s="41"/>
-      <c r="G23" s="41"/>
-      <c r="H23" s="41"/>
-      <c r="I23" s="41"/>
-      <c r="J23" s="41"/>
-      <c r="K23" s="41"/>
-      <c r="L23" s="41"/>
-      <c r="M23" s="41"/>
-      <c r="N23" s="41"/>
-      <c r="O23" s="41"/>
-    </row>
-    <row r="24" ht="12.75" customHeight="1">
-      <c r="B24" s="41"/>
-      <c r="C24" s="41"/>
-      <c r="D24" s="41"/>
-      <c r="E24" s="41"/>
-      <c r="F24" s="41"/>
-      <c r="G24" s="41"/>
-      <c r="H24" s="41"/>
-      <c r="I24" s="41"/>
-      <c r="J24" s="41"/>
-      <c r="K24" s="41"/>
-      <c r="L24" s="41"/>
-      <c r="M24" s="41"/>
-      <c r="N24" s="41"/>
-      <c r="O24" s="41"/>
-    </row>
-    <row r="25" ht="12.75" customHeight="1">
-      <c r="B25" s="41"/>
-      <c r="C25" s="41"/>
-      <c r="D25" s="41"/>
-      <c r="E25" s="41"/>
-      <c r="F25" s="41"/>
-      <c r="G25" s="41"/>
-      <c r="H25" s="41"/>
-      <c r="I25" s="41"/>
-      <c r="J25" s="41"/>
-      <c r="K25" s="41"/>
-      <c r="L25" s="41"/>
-      <c r="M25" s="41"/>
-      <c r="N25" s="41"/>
-      <c r="O25" s="41"/>
-    </row>
-    <row r="26" ht="12.75" customHeight="1">
-      <c r="B26" s="41"/>
-      <c r="C26" s="41"/>
-      <c r="D26" s="41"/>
-      <c r="E26" s="41"/>
-      <c r="F26" s="41"/>
-      <c r="G26" s="41"/>
-      <c r="H26" s="41"/>
-      <c r="I26" s="41"/>
-      <c r="J26" s="41"/>
-      <c r="K26" s="41"/>
-      <c r="L26" s="41"/>
-      <c r="M26" s="41"/>
-      <c r="N26" s="41"/>
-      <c r="O26" s="41"/>
-    </row>
-    <row r="27" ht="12.75" customHeight="1">
-      <c r="B27" s="41"/>
-      <c r="C27" s="41"/>
-      <c r="D27" s="41"/>
-      <c r="E27" s="41"/>
-      <c r="F27" s="41"/>
-      <c r="G27" s="41"/>
-      <c r="H27" s="41"/>
-      <c r="I27" s="41"/>
-      <c r="J27" s="41"/>
-      <c r="K27" s="41"/>
-      <c r="L27" s="41"/>
-      <c r="M27" s="41"/>
-      <c r="N27" s="41"/>
-      <c r="O27" s="41"/>
-    </row>
-    <row r="28" ht="12.75" customHeight="1">
-      <c r="B28" s="41"/>
-      <c r="C28" s="41"/>
-      <c r="D28" s="41"/>
-      <c r="E28" s="41"/>
-      <c r="F28" s="41"/>
-      <c r="G28" s="41"/>
-      <c r="H28" s="41"/>
-      <c r="I28" s="41"/>
-      <c r="J28" s="41"/>
-      <c r="K28" s="41"/>
-      <c r="L28" s="41"/>
-      <c r="M28" s="41"/>
-      <c r="N28" s="41"/>
-      <c r="O28" s="41"/>
-    </row>
-    <row r="29" ht="12.75" customHeight="1">
-      <c r="B29" s="41"/>
-      <c r="C29" s="41"/>
-      <c r="D29" s="41"/>
-      <c r="E29" s="41"/>
-      <c r="F29" s="41"/>
-      <c r="G29" s="41"/>
-      <c r="H29" s="41"/>
-      <c r="I29" s="41"/>
-      <c r="J29" s="41"/>
-      <c r="K29" s="41"/>
-      <c r="L29" s="41"/>
-      <c r="M29" s="41"/>
-      <c r="N29" s="41"/>
-      <c r="O29" s="41"/>
-    </row>
-    <row r="30" ht="12.75" customHeight="1">
-      <c r="B30" s="41"/>
-      <c r="C30" s="41"/>
-      <c r="D30" s="41"/>
-      <c r="E30" s="41"/>
-      <c r="F30" s="41"/>
-      <c r="G30" s="41"/>
-      <c r="H30" s="41"/>
-      <c r="I30" s="41"/>
-      <c r="J30" s="41"/>
-      <c r="K30" s="41"/>
-      <c r="L30" s="41"/>
-      <c r="M30" s="41"/>
-      <c r="N30" s="41"/>
-      <c r="O30" s="41"/>
-    </row>
-    <row r="31" ht="12.75" customHeight="1">
-      <c r="B31" s="41"/>
-      <c r="C31" s="41"/>
-      <c r="D31" s="41"/>
-      <c r="E31" s="41"/>
-      <c r="F31" s="41"/>
-      <c r="G31" s="41"/>
-      <c r="H31" s="41"/>
-      <c r="I31" s="41"/>
-      <c r="J31" s="41"/>
-      <c r="K31" s="41"/>
-      <c r="L31" s="41"/>
-      <c r="M31" s="41"/>
-      <c r="N31" s="41"/>
-      <c r="O31" s="41"/>
-    </row>
-    <row r="32" ht="12.75" customHeight="1">
-      <c r="B32" s="41"/>
-      <c r="C32" s="41"/>
-      <c r="D32" s="41"/>
-      <c r="E32" s="41"/>
-      <c r="F32" s="41"/>
-      <c r="G32" s="41"/>
-      <c r="H32" s="41"/>
-      <c r="I32" s="41"/>
-      <c r="J32" s="41"/>
-      <c r="K32" s="41"/>
-      <c r="L32" s="41"/>
-      <c r="M32" s="41"/>
-      <c r="N32" s="41"/>
-      <c r="O32" s="41"/>
-    </row>
-    <row r="33" ht="12.75" customHeight="1">
-      <c r="B33" s="41"/>
-      <c r="C33" s="41"/>
-      <c r="D33" s="41"/>
-      <c r="E33" s="41"/>
-      <c r="F33" s="41"/>
-      <c r="G33" s="41"/>
-      <c r="H33" s="41"/>
-      <c r="I33" s="41"/>
-      <c r="J33" s="41"/>
-      <c r="K33" s="41"/>
-      <c r="L33" s="41"/>
-      <c r="M33" s="41"/>
-      <c r="N33" s="41"/>
-      <c r="O33" s="41"/>
-    </row>
-    <row r="34" ht="12.75" customHeight="1">
-      <c r="B34" s="41"/>
-      <c r="C34" s="41"/>
-      <c r="D34" s="41"/>
-      <c r="E34" s="41"/>
-      <c r="F34" s="41"/>
-      <c r="G34" s="41"/>
-      <c r="H34" s="41"/>
-      <c r="I34" s="41"/>
-      <c r="J34" s="41"/>
-      <c r="K34" s="41"/>
-      <c r="L34" s="41"/>
-      <c r="M34" s="41"/>
-      <c r="N34" s="41"/>
-      <c r="O34" s="41"/>
-    </row>
-    <row r="35" ht="12.75" customHeight="1">
-      <c r="B35" s="41"/>
-      <c r="C35" s="41"/>
-      <c r="D35" s="41"/>
-      <c r="E35" s="41"/>
-      <c r="F35" s="41"/>
-      <c r="G35" s="41"/>
-      <c r="H35" s="41"/>
-      <c r="I35" s="41"/>
-      <c r="J35" s="41"/>
-      <c r="K35" s="41"/>
-      <c r="L35" s="41"/>
-      <c r="M35" s="41"/>
-      <c r="N35" s="41"/>
-      <c r="O35" s="41"/>
-    </row>
-    <row r="36" ht="12.75" customHeight="1">
-      <c r="B36" s="41"/>
-      <c r="C36" s="41"/>
-      <c r="D36" s="41"/>
-      <c r="E36" s="41"/>
-      <c r="F36" s="41"/>
-      <c r="G36" s="41"/>
-      <c r="H36" s="41"/>
-      <c r="I36" s="41"/>
-      <c r="J36" s="41"/>
-      <c r="K36" s="41"/>
-      <c r="L36" s="41"/>
-      <c r="M36" s="41"/>
-      <c r="N36" s="41"/>
-      <c r="O36" s="41"/>
-    </row>
-    <row r="37" ht="12.75" customHeight="1">
-      <c r="B37" s="41"/>
-      <c r="C37" s="41"/>
-      <c r="D37" s="41"/>
-      <c r="E37" s="41"/>
-      <c r="F37" s="41"/>
-      <c r="G37" s="41"/>
-      <c r="H37" s="41"/>
-      <c r="I37" s="41"/>
-      <c r="J37" s="41"/>
-      <c r="K37" s="41"/>
-      <c r="L37" s="41"/>
-      <c r="M37" s="41"/>
-      <c r="N37" s="41"/>
-      <c r="O37" s="41"/>
-    </row>
-    <row r="38" ht="12.75" customHeight="1">
-      <c r="B38" s="41"/>
-      <c r="C38" s="41"/>
-      <c r="D38" s="41"/>
-      <c r="E38" s="41"/>
-      <c r="F38" s="41"/>
-      <c r="G38" s="41"/>
-      <c r="H38" s="41"/>
-      <c r="I38" s="41"/>
-      <c r="J38" s="41"/>
-      <c r="K38" s="41"/>
-      <c r="L38" s="41"/>
-      <c r="M38" s="41"/>
-      <c r="N38" s="41"/>
-      <c r="O38" s="41"/>
-    </row>
-    <row r="39" ht="12.75" customHeight="1">
-      <c r="B39" s="41"/>
-      <c r="C39" s="41"/>
-      <c r="D39" s="41"/>
-      <c r="E39" s="41"/>
-      <c r="F39" s="41"/>
-      <c r="G39" s="41"/>
-      <c r="H39" s="41"/>
-      <c r="I39" s="41"/>
-      <c r="J39" s="41"/>
-      <c r="K39" s="41"/>
-      <c r="L39" s="41"/>
-      <c r="M39" s="41"/>
-      <c r="N39" s="41"/>
-      <c r="O39" s="41"/>
-    </row>
-    <row r="40" ht="12.75" customHeight="1">
-      <c r="B40" s="41"/>
-      <c r="C40" s="41"/>
-      <c r="D40" s="41"/>
-      <c r="E40" s="41"/>
-      <c r="F40" s="41"/>
-      <c r="G40" s="41"/>
-      <c r="H40" s="41"/>
-      <c r="I40" s="41"/>
-      <c r="J40" s="41"/>
-      <c r="K40" s="41"/>
-      <c r="L40" s="41"/>
-      <c r="M40" s="41"/>
-      <c r="N40" s="41"/>
-      <c r="O40" s="41"/>
-    </row>
-    <row r="41" ht="12.75" customHeight="1">
-      <c r="B41" s="41"/>
-      <c r="C41" s="41"/>
-      <c r="D41" s="41"/>
-      <c r="E41" s="41"/>
-      <c r="F41" s="41"/>
-      <c r="G41" s="41"/>
-      <c r="H41" s="41"/>
-      <c r="I41" s="41"/>
-      <c r="J41" s="41"/>
-      <c r="K41" s="41"/>
-      <c r="L41" s="41"/>
-      <c r="M41" s="41"/>
-      <c r="N41" s="41"/>
-      <c r="O41" s="41"/>
-    </row>
-    <row r="42" ht="12.75" customHeight="1">
-      <c r="B42" s="41"/>
-      <c r="C42" s="41"/>
-      <c r="D42" s="41"/>
-      <c r="E42" s="41"/>
-      <c r="F42" s="41"/>
-      <c r="G42" s="41"/>
-      <c r="H42" s="41"/>
-      <c r="I42" s="41"/>
-      <c r="J42" s="41"/>
-      <c r="K42" s="41"/>
-      <c r="L42" s="41"/>
-      <c r="M42" s="41"/>
-      <c r="N42" s="41"/>
-      <c r="O42" s="41"/>
-    </row>
-    <row r="43">
-      <c r="B43" s="41"/>
-      <c r="C43" s="41"/>
-      <c r="D43" s="41"/>
-      <c r="E43" s="41"/>
-      <c r="F43" s="41"/>
-      <c r="G43" s="41"/>
-      <c r="H43" s="41"/>
-      <c r="I43" s="41"/>
-      <c r="J43" s="41"/>
-      <c r="K43" s="41"/>
-      <c r="L43" s="41"/>
-      <c r="M43" s="41"/>
-      <c r="N43" s="41"/>
-      <c r="O43" s="41"/>
-    </row>
-    <row r="44">
-      <c r="B44" s="41"/>
-      <c r="C44" s="41"/>
-      <c r="D44" s="41"/>
-      <c r="E44" s="41"/>
-      <c r="F44" s="41"/>
-      <c r="G44" s="41"/>
-      <c r="H44" s="41"/>
-      <c r="I44" s="41"/>
-      <c r="J44" s="41"/>
-      <c r="K44" s="41"/>
-      <c r="L44" s="41"/>
-      <c r="M44" s="41"/>
-      <c r="N44" s="41"/>
-      <c r="O44" s="41"/>
-    </row>
-    <row r="45">
-      <c r="B45" s="41"/>
-      <c r="C45" s="41"/>
-      <c r="D45" s="41"/>
-      <c r="E45" s="41"/>
-      <c r="F45" s="41"/>
-      <c r="G45" s="41"/>
-      <c r="H45" s="41"/>
-      <c r="I45" s="41"/>
-      <c r="J45" s="41"/>
-      <c r="K45" s="41"/>
-      <c r="L45" s="41"/>
-      <c r="M45" s="41"/>
-      <c r="N45" s="41"/>
-      <c r="O45" s="41"/>
-    </row>
-    <row r="46">
-      <c r="B46" s="41"/>
-      <c r="C46" s="41"/>
-      <c r="D46" s="41"/>
-      <c r="E46" s="41"/>
-      <c r="F46" s="41"/>
-      <c r="G46" s="41"/>
-      <c r="H46" s="41"/>
-      <c r="I46" s="41"/>
-      <c r="J46" s="41"/>
-      <c r="K46" s="41"/>
-      <c r="L46" s="41"/>
-      <c r="M46" s="41"/>
-      <c r="N46" s="41"/>
-      <c r="O46" s="41"/>
-    </row>
-    <row r="47">
-      <c r="B47" s="41"/>
-      <c r="C47" s="41"/>
-      <c r="D47" s="41"/>
-      <c r="E47" s="41"/>
-      <c r="F47" s="41"/>
-      <c r="G47" s="41"/>
-      <c r="H47" s="41"/>
-      <c r="I47" s="41"/>
-      <c r="J47" s="41"/>
-      <c r="K47" s="41"/>
-      <c r="L47" s="41"/>
-      <c r="M47" s="41"/>
-      <c r="N47" s="41"/>
-      <c r="O47" s="41"/>
-    </row>
-    <row r="48">
-      <c r="B48" s="41"/>
-      <c r="C48" s="41"/>
-      <c r="D48" s="41"/>
-      <c r="E48" s="41"/>
-      <c r="F48" s="41"/>
-      <c r="G48" s="41"/>
-      <c r="H48" s="41"/>
-      <c r="I48" s="41"/>
-      <c r="J48" s="41"/>
-      <c r="K48" s="41"/>
-      <c r="L48" s="41"/>
-      <c r="M48" s="41"/>
-      <c r="N48" s="41"/>
-      <c r="O48" s="41"/>
-    </row>
-    <row r="49">
-      <c r="B49" s="41"/>
-      <c r="C49" s="41"/>
-      <c r="D49" s="41"/>
-      <c r="E49" s="41"/>
-      <c r="F49" s="41"/>
-      <c r="G49" s="41"/>
-      <c r="H49" s="41"/>
-      <c r="I49" s="41"/>
-      <c r="J49" s="41"/>
-      <c r="K49" s="41"/>
-      <c r="L49" s="41"/>
-      <c r="M49" s="41"/>
-      <c r="N49" s="41"/>
-      <c r="O49" s="41"/>
-    </row>
-    <row r="50">
-      <c r="B50" s="41"/>
-      <c r="C50" s="41"/>
-      <c r="D50" s="41"/>
-      <c r="E50" s="41"/>
-      <c r="F50" s="41"/>
-      <c r="G50" s="41"/>
-      <c r="H50" s="41"/>
-      <c r="I50" s="41"/>
-      <c r="J50" s="41"/>
-      <c r="K50" s="41"/>
-      <c r="L50" s="41"/>
-      <c r="M50" s="41"/>
-      <c r="N50" s="41"/>
-      <c r="O50" s="41"/>
-    </row>
-    <row r="51">
-      <c r="B51" s="41"/>
-      <c r="C51" s="41"/>
-      <c r="D51" s="41"/>
-      <c r="E51" s="41"/>
-      <c r="F51" s="41"/>
-      <c r="G51" s="41"/>
-      <c r="H51" s="41"/>
-      <c r="I51" s="41"/>
-      <c r="J51" s="41"/>
-      <c r="K51" s="41"/>
-      <c r="L51" s="41"/>
-      <c r="M51" s="41"/>
-      <c r="N51" s="41"/>
-      <c r="O51" s="41"/>
-    </row>
-    <row r="52">
-      <c r="B52" s="41"/>
-      <c r="C52" s="41"/>
-      <c r="D52" s="41"/>
-      <c r="E52" s="41"/>
-      <c r="F52" s="41"/>
-      <c r="G52" s="41"/>
-      <c r="H52" s="41"/>
-      <c r="I52" s="41"/>
-      <c r="J52" s="41"/>
-      <c r="K52" s="41"/>
-      <c r="L52" s="41"/>
-      <c r="M52" s="41"/>
-      <c r="N52" s="41"/>
-      <c r="O52" s="41"/>
-    </row>
-    <row r="53">
-      <c r="B53" s="41"/>
-      <c r="C53" s="41"/>
-      <c r="D53" s="41"/>
-      <c r="E53" s="41"/>
-      <c r="F53" s="41"/>
-      <c r="G53" s="41"/>
-      <c r="H53" s="41"/>
-      <c r="I53" s="41"/>
-      <c r="J53" s="41"/>
-      <c r="K53" s="41"/>
-      <c r="L53" s="41"/>
-      <c r="M53" s="41"/>
-      <c r="N53" s="41"/>
-      <c r="O53" s="41"/>
-    </row>
-    <row r="54">
-      <c r="B54" s="41"/>
-      <c r="C54" s="41"/>
-      <c r="D54" s="41"/>
-      <c r="E54" s="41"/>
-      <c r="F54" s="41"/>
-      <c r="G54" s="41"/>
-      <c r="H54" s="41"/>
-      <c r="I54" s="41"/>
-      <c r="J54" s="41"/>
-      <c r="K54" s="41"/>
-      <c r="L54" s="41"/>
-      <c r="M54" s="41"/>
-      <c r="N54" s="41"/>
-      <c r="O54" s="41"/>
-    </row>
-    <row r="55">
-      <c r="B55" s="41"/>
-      <c r="C55" s="41"/>
-      <c r="D55" s="41"/>
-      <c r="E55" s="41"/>
-      <c r="F55" s="41"/>
-      <c r="G55" s="41"/>
-      <c r="H55" s="41"/>
-      <c r="I55" s="41"/>
-      <c r="J55" s="41"/>
-      <c r="K55" s="41"/>
-      <c r="L55" s="41"/>
-      <c r="M55" s="41"/>
-      <c r="N55" s="41"/>
-      <c r="O55" s="41"/>
-    </row>
-    <row r="56">
-      <c r="B56" s="41"/>
-      <c r="C56" s="41"/>
-      <c r="D56" s="41"/>
-      <c r="E56" s="41"/>
-      <c r="F56" s="41"/>
-      <c r="G56" s="41"/>
-      <c r="H56" s="41"/>
-      <c r="I56" s="41"/>
-      <c r="J56" s="41"/>
-      <c r="K56" s="41"/>
-      <c r="L56" s="41"/>
-      <c r="M56" s="41"/>
-      <c r="N56" s="41"/>
-      <c r="O56" s="41"/>
-    </row>
-    <row r="57">
-      <c r="B57" s="41"/>
-      <c r="C57" s="41"/>
-      <c r="D57" s="41"/>
-      <c r="E57" s="41"/>
-      <c r="F57" s="41"/>
-      <c r="G57" s="41"/>
-      <c r="H57" s="41"/>
-      <c r="I57" s="41"/>
-      <c r="J57" s="41"/>
-      <c r="K57" s="41"/>
-      <c r="L57" s="41"/>
-      <c r="M57" s="41"/>
-      <c r="N57" s="41"/>
-      <c r="O57" s="41"/>
-    </row>
-    <row r="58">
-      <c r="B58" s="41"/>
-      <c r="C58" s="41"/>
-      <c r="D58" s="41"/>
-      <c r="E58" s="41"/>
-      <c r="F58" s="41"/>
-      <c r="G58" s="41"/>
-      <c r="H58" s="41"/>
-      <c r="I58" s="41"/>
-      <c r="J58" s="41"/>
-      <c r="K58" s="41"/>
-      <c r="L58" s="41"/>
-      <c r="M58" s="41"/>
-      <c r="N58" s="41"/>
-      <c r="O58" s="41"/>
-    </row>
-    <row r="59">
-      <c r="B59" s="41"/>
-      <c r="C59" s="41"/>
-      <c r="D59" s="41"/>
-      <c r="E59" s="41"/>
-      <c r="F59" s="41"/>
-      <c r="G59" s="41"/>
-      <c r="H59" s="41"/>
-      <c r="I59" s="41"/>
-      <c r="J59" s="41"/>
-      <c r="K59" s="41"/>
-      <c r="L59" s="41"/>
-      <c r="M59" s="41"/>
-      <c r="N59" s="41"/>
-      <c r="O59" s="41"/>
-    </row>
-    <row r="60">
-      <c r="B60" s="41"/>
-      <c r="C60" s="41"/>
-      <c r="D60" s="41"/>
-      <c r="E60" s="41"/>
-      <c r="F60" s="41"/>
-      <c r="G60" s="41"/>
-      <c r="H60" s="41"/>
-      <c r="I60" s="41"/>
-      <c r="J60" s="41"/>
-      <c r="K60" s="41"/>
-      <c r="L60" s="41"/>
-      <c r="M60" s="41"/>
-      <c r="N60" s="41"/>
-      <c r="O60" s="41"/>
-    </row>
-    <row r="61">
-      <c r="B61" s="41"/>
-      <c r="C61" s="41"/>
-      <c r="D61" s="41"/>
-      <c r="E61" s="41"/>
-      <c r="F61" s="41"/>
-      <c r="G61" s="41"/>
-      <c r="H61" s="41"/>
-      <c r="I61" s="41"/>
-      <c r="J61" s="41"/>
-      <c r="K61" s="41"/>
-      <c r="L61" s="41"/>
-      <c r="M61" s="41"/>
-      <c r="N61" s="41"/>
-      <c r="O61" s="41"/>
-    </row>
-    <row r="62">
-      <c r="B62" s="41"/>
-      <c r="C62" s="41"/>
-      <c r="D62" s="41"/>
-      <c r="E62" s="41"/>
-      <c r="F62" s="41"/>
-      <c r="G62" s="41"/>
-      <c r="H62" s="41"/>
-      <c r="I62" s="41"/>
-      <c r="J62" s="41"/>
-      <c r="K62" s="41"/>
-      <c r="L62" s="41"/>
-      <c r="M62" s="41"/>
-      <c r="N62" s="41"/>
-      <c r="O62" s="41"/>
-    </row>
-    <row r="63">
+      <c r="J58" s="32"/>
+      <c r="K58" s="36"/>
+      <c r="L58" s="36"/>
+      <c r="M58" s="36"/>
+      <c r="N58" s="36"/>
+      <c r="O58" s="37">
+        <f>M57</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" ht="12.75" customHeight="1">
+      <c r="H59" s="34"/>
+      <c r="I59" s="32" t="s">
+        <v>62</v>
+      </c>
+      <c r="J59" s="32"/>
+      <c r="K59" s="36"/>
+      <c r="L59" s="36"/>
+      <c r="M59" s="36"/>
+      <c r="N59" s="36"/>
+      <c r="O59" s="38">
+        <f>O57+O58</f>
+        <v>82</v>
+      </c>
+    </row>
+    <row r="60" ht="12.75" customHeight="1">
+      <c r="B60" s="39"/>
+      <c r="C60" s="39"/>
+      <c r="D60" s="39"/>
+      <c r="E60" s="39"/>
+      <c r="F60" s="39"/>
+      <c r="G60" s="39"/>
+      <c r="H60" s="35"/>
+      <c r="I60" s="35"/>
+      <c r="J60" s="35"/>
+      <c r="K60" s="35"/>
+      <c r="L60" s="35"/>
+      <c r="M60" s="35"/>
+      <c r="N60" s="35"/>
+      <c r="O60" s="35"/>
+    </row>
+    <row r="61" ht="12.75" customHeight="1">
+      <c r="B61" s="39"/>
+      <c r="C61" s="39"/>
+      <c r="D61" s="39"/>
+      <c r="E61" s="39"/>
+      <c r="F61" s="39"/>
+      <c r="G61" s="39"/>
+      <c r="H61" s="35"/>
+      <c r="I61" s="35"/>
+      <c r="J61" s="35"/>
+      <c r="K61" s="35"/>
+      <c r="L61" s="35"/>
+      <c r="M61" s="35"/>
+      <c r="N61" s="35"/>
+      <c r="O61" s="35"/>
+    </row>
+    <row r="62" ht="12.75" customHeight="1">
+      <c r="B62" s="39"/>
+      <c r="C62" s="39"/>
+      <c r="D62" s="39"/>
+      <c r="E62" s="39"/>
+      <c r="F62" s="39"/>
+      <c r="G62" s="39"/>
+      <c r="H62" s="35"/>
+      <c r="I62" s="35"/>
+      <c r="J62" s="35"/>
+      <c r="K62" s="35"/>
+      <c r="L62" s="35"/>
+      <c r="M62" s="35"/>
+      <c r="N62" s="35"/>
+      <c r="O62" s="35"/>
+    </row>
+    <row r="63" ht="12.75" customHeight="1">
+      <c r="A63" s="40"/>
       <c r="B63" s="41"/>
       <c r="C63" s="41"/>
       <c r="D63" s="41"/>
@@ -1915,23 +2936,34 @@
       <c r="N63" s="41"/>
       <c r="O63" s="41"/>
     </row>
-    <row r="64">
-      <c r="B64" s="41"/>
-      <c r="C64" s="41"/>
-      <c r="D64" s="41"/>
-      <c r="E64" s="41"/>
-      <c r="F64" s="41"/>
-      <c r="G64" s="41"/>
-      <c r="H64" s="41"/>
-      <c r="I64" s="41"/>
-      <c r="J64" s="41"/>
-      <c r="K64" s="41"/>
-      <c r="L64" s="41"/>
-      <c r="M64" s="41"/>
-      <c r="N64" s="41"/>
-      <c r="O64" s="41"/>
-    </row>
-    <row r="65">
+    <row r="64" ht="12.75" customHeight="1">
+      <c r="A64" s="40"/>
+      <c r="B64" s="42" t="s">
+        <v>63</v>
+      </c>
+      <c r="C64" s="42"/>
+      <c r="D64" s="43" t="str">
+        <f>IF(1 &lt; 0,"Дорогин А."," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="E64" s="43"/>
+      <c r="F64" s="43"/>
+      <c r="G64" s="42" t="s">
+        <v>64</v>
+      </c>
+      <c r="H64" s="42"/>
+      <c r="I64" s="43" t="str">
+        <f>IF(1 &gt; 0,"Дорогин А."," ")</f>
+        <v>Дорогин А.</v>
+      </c>
+      <c r="J64" s="43"/>
+      <c r="K64" s="43"/>
+      <c r="L64" s="43"/>
+      <c r="M64" s="43"/>
+      <c r="N64" s="43"/>
+      <c r="O64" s="43"/>
+    </row>
+    <row r="65" ht="12.75" customHeight="1">
       <c r="B65" s="41"/>
       <c r="C65" s="41"/>
       <c r="D65" s="41"/>
@@ -1947,7 +2979,7 @@
       <c r="N65" s="41"/>
       <c r="O65" s="41"/>
     </row>
-    <row r="66">
+    <row r="66" ht="12.75" customHeight="1">
       <c r="B66" s="41"/>
       <c r="C66" s="41"/>
       <c r="D66" s="41"/>
@@ -1963,7 +2995,7 @@
       <c r="N66" s="41"/>
       <c r="O66" s="41"/>
     </row>
-    <row r="67">
+    <row r="67" ht="12.75" customHeight="1">
       <c r="B67" s="41"/>
       <c r="C67" s="41"/>
       <c r="D67" s="41"/>
@@ -1979,7 +3011,7 @@
       <c r="N67" s="41"/>
       <c r="O67" s="41"/>
     </row>
-    <row r="68">
+    <row r="68" ht="12.75" customHeight="1">
       <c r="B68" s="41"/>
       <c r="C68" s="41"/>
       <c r="D68" s="41"/>
@@ -1995,7 +3027,7 @@
       <c r="N68" s="41"/>
       <c r="O68" s="41"/>
     </row>
-    <row r="69">
+    <row r="69" ht="12.75" customHeight="1">
       <c r="B69" s="41"/>
       <c r="C69" s="41"/>
       <c r="D69" s="41"/>
@@ -2011,7 +3043,7 @@
       <c r="N69" s="41"/>
       <c r="O69" s="41"/>
     </row>
-    <row r="70">
+    <row r="70" ht="12.75" customHeight="1">
       <c r="B70" s="41"/>
       <c r="C70" s="41"/>
       <c r="D70" s="41"/>
@@ -2027,7 +3059,7 @@
       <c r="N70" s="41"/>
       <c r="O70" s="41"/>
     </row>
-    <row r="71">
+    <row r="71" ht="12.75" customHeight="1">
       <c r="B71" s="41"/>
       <c r="C71" s="41"/>
       <c r="D71" s="41"/>
@@ -2043,7 +3075,7 @@
       <c r="N71" s="41"/>
       <c r="O71" s="41"/>
     </row>
-    <row r="72">
+    <row r="72" ht="12.75" customHeight="1">
       <c r="B72" s="41"/>
       <c r="C72" s="41"/>
       <c r="D72" s="41"/>
@@ -2059,7 +3091,7 @@
       <c r="N72" s="41"/>
       <c r="O72" s="41"/>
     </row>
-    <row r="73">
+    <row r="73" ht="12.75" customHeight="1">
       <c r="B73" s="41"/>
       <c r="C73" s="41"/>
       <c r="D73" s="41"/>
@@ -2075,7 +3107,7 @@
       <c r="N73" s="41"/>
       <c r="O73" s="41"/>
     </row>
-    <row r="74">
+    <row r="74" ht="12.75" customHeight="1">
       <c r="B74" s="41"/>
       <c r="C74" s="41"/>
       <c r="D74" s="41"/>
@@ -2091,7 +3123,7 @@
       <c r="N74" s="41"/>
       <c r="O74" s="41"/>
     </row>
-    <row r="75">
+    <row r="75" ht="12.75" customHeight="1">
       <c r="B75" s="41"/>
       <c r="C75" s="41"/>
       <c r="D75" s="41"/>
@@ -2107,7 +3139,7 @@
       <c r="N75" s="41"/>
       <c r="O75" s="41"/>
     </row>
-    <row r="76">
+    <row r="76" ht="12.75" customHeight="1">
       <c r="B76" s="41"/>
       <c r="C76" s="41"/>
       <c r="D76" s="41"/>
@@ -2123,7 +3155,7 @@
       <c r="N76" s="41"/>
       <c r="O76" s="41"/>
     </row>
-    <row r="77">
+    <row r="77" ht="12.75" customHeight="1">
       <c r="B77" s="41"/>
       <c r="C77" s="41"/>
       <c r="D77" s="41"/>
@@ -2139,7 +3171,7 @@
       <c r="N77" s="41"/>
       <c r="O77" s="41"/>
     </row>
-    <row r="78">
+    <row r="78" ht="12.75" customHeight="1">
       <c r="B78" s="41"/>
       <c r="C78" s="41"/>
       <c r="D78" s="41"/>
@@ -2155,7 +3187,7 @@
       <c r="N78" s="41"/>
       <c r="O78" s="41"/>
     </row>
-    <row r="79">
+    <row r="79" ht="12.75" customHeight="1">
       <c r="B79" s="41"/>
       <c r="C79" s="41"/>
       <c r="D79" s="41"/>
@@ -2171,7 +3203,7 @@
       <c r="N79" s="41"/>
       <c r="O79" s="41"/>
     </row>
-    <row r="80">
+    <row r="80" ht="12.75" customHeight="1">
       <c r="B80" s="41"/>
       <c r="C80" s="41"/>
       <c r="D80" s="41"/>
@@ -2187,7 +3219,7 @@
       <c r="N80" s="41"/>
       <c r="O80" s="41"/>
     </row>
-    <row r="81">
+    <row r="81" ht="12.75" customHeight="1">
       <c r="B81" s="41"/>
       <c r="C81" s="41"/>
       <c r="D81" s="41"/>
@@ -2203,7 +3235,7 @@
       <c r="N81" s="41"/>
       <c r="O81" s="41"/>
     </row>
-    <row r="82">
+    <row r="82" ht="12.75" customHeight="1">
       <c r="B82" s="41"/>
       <c r="C82" s="41"/>
       <c r="D82" s="41"/>
@@ -2219,7 +3251,7 @@
       <c r="N82" s="41"/>
       <c r="O82" s="41"/>
     </row>
-    <row r="83">
+    <row r="83" ht="12.75" customHeight="1">
       <c r="B83" s="41"/>
       <c r="C83" s="41"/>
       <c r="D83" s="41"/>
@@ -2235,7 +3267,7 @@
       <c r="N83" s="41"/>
       <c r="O83" s="41"/>
     </row>
-    <row r="84">
+    <row r="84" ht="12.75" customHeight="1">
       <c r="B84" s="41"/>
       <c r="C84" s="41"/>
       <c r="D84" s="41"/>
@@ -2251,7 +3283,7 @@
       <c r="N84" s="41"/>
       <c r="O84" s="41"/>
     </row>
-    <row r="85">
+    <row r="85" ht="12.75" customHeight="1">
       <c r="B85" s="41"/>
       <c r="C85" s="41"/>
       <c r="D85" s="41"/>
@@ -2475,27 +3507,758 @@
       <c r="N98" s="41"/>
       <c r="O98" s="41"/>
     </row>
+    <row r="99">
+      <c r="B99" s="41"/>
+      <c r="C99" s="41"/>
+      <c r="D99" s="41"/>
+      <c r="E99" s="41"/>
+      <c r="F99" s="41"/>
+      <c r="G99" s="41"/>
+      <c r="H99" s="41"/>
+      <c r="I99" s="41"/>
+      <c r="J99" s="41"/>
+      <c r="K99" s="41"/>
+      <c r="L99" s="41"/>
+      <c r="M99" s="41"/>
+      <c r="N99" s="41"/>
+      <c r="O99" s="41"/>
+    </row>
+    <row r="100">
+      <c r="B100" s="41"/>
+      <c r="C100" s="41"/>
+      <c r="D100" s="41"/>
+      <c r="E100" s="41"/>
+      <c r="F100" s="41"/>
+      <c r="G100" s="41"/>
+      <c r="H100" s="41"/>
+      <c r="I100" s="41"/>
+      <c r="J100" s="41"/>
+      <c r="K100" s="41"/>
+      <c r="L100" s="41"/>
+      <c r="M100" s="41"/>
+      <c r="N100" s="41"/>
+      <c r="O100" s="41"/>
+    </row>
+    <row r="101">
+      <c r="B101" s="41"/>
+      <c r="C101" s="41"/>
+      <c r="D101" s="41"/>
+      <c r="E101" s="41"/>
+      <c r="F101" s="41"/>
+      <c r="G101" s="41"/>
+      <c r="H101" s="41"/>
+      <c r="I101" s="41"/>
+      <c r="J101" s="41"/>
+      <c r="K101" s="41"/>
+      <c r="L101" s="41"/>
+      <c r="M101" s="41"/>
+      <c r="N101" s="41"/>
+      <c r="O101" s="41"/>
+    </row>
+    <row r="102">
+      <c r="B102" s="41"/>
+      <c r="C102" s="41"/>
+      <c r="D102" s="41"/>
+      <c r="E102" s="41"/>
+      <c r="F102" s="41"/>
+      <c r="G102" s="41"/>
+      <c r="H102" s="41"/>
+      <c r="I102" s="41"/>
+      <c r="J102" s="41"/>
+      <c r="K102" s="41"/>
+      <c r="L102" s="41"/>
+      <c r="M102" s="41"/>
+      <c r="N102" s="41"/>
+      <c r="O102" s="41"/>
+    </row>
+    <row r="103">
+      <c r="B103" s="41"/>
+      <c r="C103" s="41"/>
+      <c r="D103" s="41"/>
+      <c r="E103" s="41"/>
+      <c r="F103" s="41"/>
+      <c r="G103" s="41"/>
+      <c r="H103" s="41"/>
+      <c r="I103" s="41"/>
+      <c r="J103" s="41"/>
+      <c r="K103" s="41"/>
+      <c r="L103" s="41"/>
+      <c r="M103" s="41"/>
+      <c r="N103" s="41"/>
+      <c r="O103" s="41"/>
+    </row>
+    <row r="104">
+      <c r="B104" s="41"/>
+      <c r="C104" s="41"/>
+      <c r="D104" s="41"/>
+      <c r="E104" s="41"/>
+      <c r="F104" s="41"/>
+      <c r="G104" s="41"/>
+      <c r="H104" s="41"/>
+      <c r="I104" s="41"/>
+      <c r="J104" s="41"/>
+      <c r="K104" s="41"/>
+      <c r="L104" s="41"/>
+      <c r="M104" s="41"/>
+      <c r="N104" s="41"/>
+      <c r="O104" s="41"/>
+    </row>
+    <row r="105">
+      <c r="B105" s="41"/>
+      <c r="C105" s="41"/>
+      <c r="D105" s="41"/>
+      <c r="E105" s="41"/>
+      <c r="F105" s="41"/>
+      <c r="G105" s="41"/>
+      <c r="H105" s="41"/>
+      <c r="I105" s="41"/>
+      <c r="J105" s="41"/>
+      <c r="K105" s="41"/>
+      <c r="L105" s="41"/>
+      <c r="M105" s="41"/>
+      <c r="N105" s="41"/>
+      <c r="O105" s="41"/>
+    </row>
+    <row r="106">
+      <c r="B106" s="41"/>
+      <c r="C106" s="41"/>
+      <c r="D106" s="41"/>
+      <c r="E106" s="41"/>
+      <c r="F106" s="41"/>
+      <c r="G106" s="41"/>
+      <c r="H106" s="41"/>
+      <c r="I106" s="41"/>
+      <c r="J106" s="41"/>
+      <c r="K106" s="41"/>
+      <c r="L106" s="41"/>
+      <c r="M106" s="41"/>
+      <c r="N106" s="41"/>
+      <c r="O106" s="41"/>
+    </row>
+    <row r="107">
+      <c r="B107" s="41"/>
+      <c r="C107" s="41"/>
+      <c r="D107" s="41"/>
+      <c r="E107" s="41"/>
+      <c r="F107" s="41"/>
+      <c r="G107" s="41"/>
+      <c r="H107" s="41"/>
+      <c r="I107" s="41"/>
+      <c r="J107" s="41"/>
+      <c r="K107" s="41"/>
+      <c r="L107" s="41"/>
+      <c r="M107" s="41"/>
+      <c r="N107" s="41"/>
+      <c r="O107" s="41"/>
+    </row>
+    <row r="108">
+      <c r="B108" s="41"/>
+      <c r="C108" s="41"/>
+      <c r="D108" s="41"/>
+      <c r="E108" s="41"/>
+      <c r="F108" s="41"/>
+      <c r="G108" s="41"/>
+      <c r="H108" s="41"/>
+      <c r="I108" s="41"/>
+      <c r="J108" s="41"/>
+      <c r="K108" s="41"/>
+      <c r="L108" s="41"/>
+      <c r="M108" s="41"/>
+      <c r="N108" s="41"/>
+      <c r="O108" s="41"/>
+    </row>
+    <row r="109">
+      <c r="B109" s="41"/>
+      <c r="C109" s="41"/>
+      <c r="D109" s="41"/>
+      <c r="E109" s="41"/>
+      <c r="F109" s="41"/>
+      <c r="G109" s="41"/>
+      <c r="H109" s="41"/>
+      <c r="I109" s="41"/>
+      <c r="J109" s="41"/>
+      <c r="K109" s="41"/>
+      <c r="L109" s="41"/>
+      <c r="M109" s="41"/>
+      <c r="N109" s="41"/>
+      <c r="O109" s="41"/>
+    </row>
+    <row r="110">
+      <c r="B110" s="41"/>
+      <c r="C110" s="41"/>
+      <c r="D110" s="41"/>
+      <c r="E110" s="41"/>
+      <c r="F110" s="41"/>
+      <c r="G110" s="41"/>
+      <c r="H110" s="41"/>
+      <c r="I110" s="41"/>
+      <c r="J110" s="41"/>
+      <c r="K110" s="41"/>
+      <c r="L110" s="41"/>
+      <c r="M110" s="41"/>
+      <c r="N110" s="41"/>
+      <c r="O110" s="41"/>
+    </row>
+    <row r="111">
+      <c r="B111" s="41"/>
+      <c r="C111" s="41"/>
+      <c r="D111" s="41"/>
+      <c r="E111" s="41"/>
+      <c r="F111" s="41"/>
+      <c r="G111" s="41"/>
+      <c r="H111" s="41"/>
+      <c r="I111" s="41"/>
+      <c r="J111" s="41"/>
+      <c r="K111" s="41"/>
+      <c r="L111" s="41"/>
+      <c r="M111" s="41"/>
+      <c r="N111" s="41"/>
+      <c r="O111" s="41"/>
+    </row>
+    <row r="112">
+      <c r="B112" s="41"/>
+      <c r="C112" s="41"/>
+      <c r="D112" s="41"/>
+      <c r="E112" s="41"/>
+      <c r="F112" s="41"/>
+      <c r="G112" s="41"/>
+      <c r="H112" s="41"/>
+      <c r="I112" s="41"/>
+      <c r="J112" s="41"/>
+      <c r="K112" s="41"/>
+      <c r="L112" s="41"/>
+      <c r="M112" s="41"/>
+      <c r="N112" s="41"/>
+      <c r="O112" s="41"/>
+    </row>
+    <row r="113">
+      <c r="B113" s="41"/>
+      <c r="C113" s="41"/>
+      <c r="D113" s="41"/>
+      <c r="E113" s="41"/>
+      <c r="F113" s="41"/>
+      <c r="G113" s="41"/>
+      <c r="H113" s="41"/>
+      <c r="I113" s="41"/>
+      <c r="J113" s="41"/>
+      <c r="K113" s="41"/>
+      <c r="L113" s="41"/>
+      <c r="M113" s="41"/>
+      <c r="N113" s="41"/>
+      <c r="O113" s="41"/>
+    </row>
+    <row r="114">
+      <c r="B114" s="41"/>
+      <c r="C114" s="41"/>
+      <c r="D114" s="41"/>
+      <c r="E114" s="41"/>
+      <c r="F114" s="41"/>
+      <c r="G114" s="41"/>
+      <c r="H114" s="41"/>
+      <c r="I114" s="41"/>
+      <c r="J114" s="41"/>
+      <c r="K114" s="41"/>
+      <c r="L114" s="41"/>
+      <c r="M114" s="41"/>
+      <c r="N114" s="41"/>
+      <c r="O114" s="41"/>
+    </row>
+    <row r="115">
+      <c r="B115" s="41"/>
+      <c r="C115" s="41"/>
+      <c r="D115" s="41"/>
+      <c r="E115" s="41"/>
+      <c r="F115" s="41"/>
+      <c r="G115" s="41"/>
+      <c r="H115" s="41"/>
+      <c r="I115" s="41"/>
+      <c r="J115" s="41"/>
+      <c r="K115" s="41"/>
+      <c r="L115" s="41"/>
+      <c r="M115" s="41"/>
+      <c r="N115" s="41"/>
+      <c r="O115" s="41"/>
+    </row>
+    <row r="116">
+      <c r="B116" s="41"/>
+      <c r="C116" s="41"/>
+      <c r="D116" s="41"/>
+      <c r="E116" s="41"/>
+      <c r="F116" s="41"/>
+      <c r="G116" s="41"/>
+      <c r="H116" s="41"/>
+      <c r="I116" s="41"/>
+      <c r="J116" s="41"/>
+      <c r="K116" s="41"/>
+      <c r="L116" s="41"/>
+      <c r="M116" s="41"/>
+      <c r="N116" s="41"/>
+      <c r="O116" s="41"/>
+    </row>
+    <row r="117">
+      <c r="B117" s="41"/>
+      <c r="C117" s="41"/>
+      <c r="D117" s="41"/>
+      <c r="E117" s="41"/>
+      <c r="F117" s="41"/>
+      <c r="G117" s="41"/>
+      <c r="H117" s="41"/>
+      <c r="I117" s="41"/>
+      <c r="J117" s="41"/>
+      <c r="K117" s="41"/>
+      <c r="L117" s="41"/>
+      <c r="M117" s="41"/>
+      <c r="N117" s="41"/>
+      <c r="O117" s="41"/>
+    </row>
+    <row r="118">
+      <c r="B118" s="41"/>
+      <c r="C118" s="41"/>
+      <c r="D118" s="41"/>
+      <c r="E118" s="41"/>
+      <c r="F118" s="41"/>
+      <c r="G118" s="41"/>
+      <c r="H118" s="41"/>
+      <c r="I118" s="41"/>
+      <c r="J118" s="41"/>
+      <c r="K118" s="41"/>
+      <c r="L118" s="41"/>
+      <c r="M118" s="41"/>
+      <c r="N118" s="41"/>
+      <c r="O118" s="41"/>
+    </row>
+    <row r="119">
+      <c r="B119" s="41"/>
+      <c r="C119" s="41"/>
+      <c r="D119" s="41"/>
+      <c r="E119" s="41"/>
+      <c r="F119" s="41"/>
+      <c r="G119" s="41"/>
+      <c r="H119" s="41"/>
+      <c r="I119" s="41"/>
+      <c r="J119" s="41"/>
+      <c r="K119" s="41"/>
+      <c r="L119" s="41"/>
+      <c r="M119" s="41"/>
+      <c r="N119" s="41"/>
+      <c r="O119" s="41"/>
+    </row>
+    <row r="120">
+      <c r="B120" s="41"/>
+      <c r="C120" s="41"/>
+      <c r="D120" s="41"/>
+      <c r="E120" s="41"/>
+      <c r="F120" s="41"/>
+      <c r="G120" s="41"/>
+      <c r="H120" s="41"/>
+      <c r="I120" s="41"/>
+      <c r="J120" s="41"/>
+      <c r="K120" s="41"/>
+      <c r="L120" s="41"/>
+      <c r="M120" s="41"/>
+      <c r="N120" s="41"/>
+      <c r="O120" s="41"/>
+    </row>
+    <row r="121">
+      <c r="B121" s="41"/>
+      <c r="C121" s="41"/>
+      <c r="D121" s="41"/>
+      <c r="E121" s="41"/>
+      <c r="F121" s="41"/>
+      <c r="G121" s="41"/>
+      <c r="H121" s="41"/>
+      <c r="I121" s="41"/>
+      <c r="J121" s="41"/>
+      <c r="K121" s="41"/>
+      <c r="L121" s="41"/>
+      <c r="M121" s="41"/>
+      <c r="N121" s="41"/>
+      <c r="O121" s="41"/>
+    </row>
+    <row r="122">
+      <c r="B122" s="41"/>
+      <c r="C122" s="41"/>
+      <c r="D122" s="41"/>
+      <c r="E122" s="41"/>
+      <c r="F122" s="41"/>
+      <c r="G122" s="41"/>
+      <c r="H122" s="41"/>
+      <c r="I122" s="41"/>
+      <c r="J122" s="41"/>
+      <c r="K122" s="41"/>
+      <c r="L122" s="41"/>
+      <c r="M122" s="41"/>
+      <c r="N122" s="41"/>
+      <c r="O122" s="41"/>
+    </row>
+    <row r="123">
+      <c r="B123" s="41"/>
+      <c r="C123" s="41"/>
+      <c r="D123" s="41"/>
+      <c r="E123" s="41"/>
+      <c r="F123" s="41"/>
+      <c r="G123" s="41"/>
+      <c r="H123" s="41"/>
+      <c r="I123" s="41"/>
+      <c r="J123" s="41"/>
+      <c r="K123" s="41"/>
+      <c r="L123" s="41"/>
+      <c r="M123" s="41"/>
+      <c r="N123" s="41"/>
+      <c r="O123" s="41"/>
+    </row>
+    <row r="124">
+      <c r="B124" s="41"/>
+      <c r="C124" s="41"/>
+      <c r="D124" s="41"/>
+      <c r="E124" s="41"/>
+      <c r="F124" s="41"/>
+      <c r="G124" s="41"/>
+      <c r="H124" s="41"/>
+      <c r="I124" s="41"/>
+      <c r="J124" s="41"/>
+      <c r="K124" s="41"/>
+      <c r="L124" s="41"/>
+      <c r="M124" s="41"/>
+      <c r="N124" s="41"/>
+      <c r="O124" s="41"/>
+    </row>
+    <row r="125">
+      <c r="B125" s="41"/>
+      <c r="C125" s="41"/>
+      <c r="D125" s="41"/>
+      <c r="E125" s="41"/>
+      <c r="F125" s="41"/>
+      <c r="G125" s="41"/>
+      <c r="H125" s="41"/>
+      <c r="I125" s="41"/>
+      <c r="J125" s="41"/>
+      <c r="K125" s="41"/>
+      <c r="L125" s="41"/>
+      <c r="M125" s="41"/>
+      <c r="N125" s="41"/>
+      <c r="O125" s="41"/>
+    </row>
+    <row r="126">
+      <c r="B126" s="41"/>
+      <c r="C126" s="41"/>
+      <c r="D126" s="41"/>
+      <c r="E126" s="41"/>
+      <c r="F126" s="41"/>
+      <c r="G126" s="41"/>
+      <c r="H126" s="41"/>
+      <c r="I126" s="41"/>
+      <c r="J126" s="41"/>
+      <c r="K126" s="41"/>
+      <c r="L126" s="41"/>
+      <c r="M126" s="41"/>
+      <c r="N126" s="41"/>
+      <c r="O126" s="41"/>
+    </row>
+    <row r="127">
+      <c r="B127" s="41"/>
+      <c r="C127" s="41"/>
+      <c r="D127" s="41"/>
+      <c r="E127" s="41"/>
+      <c r="F127" s="41"/>
+      <c r="G127" s="41"/>
+      <c r="H127" s="41"/>
+      <c r="I127" s="41"/>
+      <c r="J127" s="41"/>
+      <c r="K127" s="41"/>
+      <c r="L127" s="41"/>
+      <c r="M127" s="41"/>
+      <c r="N127" s="41"/>
+      <c r="O127" s="41"/>
+    </row>
+    <row r="128">
+      <c r="B128" s="41"/>
+      <c r="C128" s="41"/>
+      <c r="D128" s="41"/>
+      <c r="E128" s="41"/>
+      <c r="F128" s="41"/>
+      <c r="G128" s="41"/>
+      <c r="H128" s="41"/>
+      <c r="I128" s="41"/>
+      <c r="J128" s="41"/>
+      <c r="K128" s="41"/>
+      <c r="L128" s="41"/>
+      <c r="M128" s="41"/>
+      <c r="N128" s="41"/>
+      <c r="O128" s="41"/>
+    </row>
+    <row r="129">
+      <c r="B129" s="41"/>
+      <c r="C129" s="41"/>
+      <c r="D129" s="41"/>
+      <c r="E129" s="41"/>
+      <c r="F129" s="41"/>
+      <c r="G129" s="41"/>
+      <c r="H129" s="41"/>
+      <c r="I129" s="41"/>
+      <c r="J129" s="41"/>
+      <c r="K129" s="41"/>
+      <c r="L129" s="41"/>
+      <c r="M129" s="41"/>
+      <c r="N129" s="41"/>
+      <c r="O129" s="41"/>
+    </row>
+    <row r="130">
+      <c r="B130" s="41"/>
+      <c r="C130" s="41"/>
+      <c r="D130" s="41"/>
+      <c r="E130" s="41"/>
+      <c r="F130" s="41"/>
+      <c r="G130" s="41"/>
+      <c r="H130" s="41"/>
+      <c r="I130" s="41"/>
+      <c r="J130" s="41"/>
+      <c r="K130" s="41"/>
+      <c r="L130" s="41"/>
+      <c r="M130" s="41"/>
+      <c r="N130" s="41"/>
+      <c r="O130" s="41"/>
+    </row>
+    <row r="131">
+      <c r="B131" s="41"/>
+      <c r="C131" s="41"/>
+      <c r="D131" s="41"/>
+      <c r="E131" s="41"/>
+      <c r="F131" s="41"/>
+      <c r="G131" s="41"/>
+      <c r="H131" s="41"/>
+      <c r="I131" s="41"/>
+      <c r="J131" s="41"/>
+      <c r="K131" s="41"/>
+      <c r="L131" s="41"/>
+      <c r="M131" s="41"/>
+      <c r="N131" s="41"/>
+      <c r="O131" s="41"/>
+    </row>
+    <row r="132">
+      <c r="B132" s="41"/>
+      <c r="C132" s="41"/>
+      <c r="D132" s="41"/>
+      <c r="E132" s="41"/>
+      <c r="F132" s="41"/>
+      <c r="G132" s="41"/>
+      <c r="H132" s="41"/>
+      <c r="I132" s="41"/>
+      <c r="J132" s="41"/>
+      <c r="K132" s="41"/>
+      <c r="L132" s="41"/>
+      <c r="M132" s="41"/>
+      <c r="N132" s="41"/>
+      <c r="O132" s="41"/>
+    </row>
+    <row r="133">
+      <c r="B133" s="41"/>
+      <c r="C133" s="41"/>
+      <c r="D133" s="41"/>
+      <c r="E133" s="41"/>
+      <c r="F133" s="41"/>
+      <c r="G133" s="41"/>
+      <c r="H133" s="41"/>
+      <c r="I133" s="41"/>
+      <c r="J133" s="41"/>
+      <c r="K133" s="41"/>
+      <c r="L133" s="41"/>
+      <c r="M133" s="41"/>
+      <c r="N133" s="41"/>
+      <c r="O133" s="41"/>
+    </row>
+    <row r="134">
+      <c r="B134" s="41"/>
+      <c r="C134" s="41"/>
+      <c r="D134" s="41"/>
+      <c r="E134" s="41"/>
+      <c r="F134" s="41"/>
+      <c r="G134" s="41"/>
+      <c r="H134" s="41"/>
+      <c r="I134" s="41"/>
+      <c r="J134" s="41"/>
+      <c r="K134" s="41"/>
+      <c r="L134" s="41"/>
+      <c r="M134" s="41"/>
+      <c r="N134" s="41"/>
+      <c r="O134" s="41"/>
+    </row>
+    <row r="135">
+      <c r="B135" s="41"/>
+      <c r="C135" s="41"/>
+      <c r="D135" s="41"/>
+      <c r="E135" s="41"/>
+      <c r="F135" s="41"/>
+      <c r="G135" s="41"/>
+      <c r="H135" s="41"/>
+      <c r="I135" s="41"/>
+      <c r="J135" s="41"/>
+      <c r="K135" s="41"/>
+      <c r="L135" s="41"/>
+      <c r="M135" s="41"/>
+      <c r="N135" s="41"/>
+      <c r="O135" s="41"/>
+    </row>
+    <row r="136">
+      <c r="B136" s="41"/>
+      <c r="C136" s="41"/>
+      <c r="D136" s="41"/>
+      <c r="E136" s="41"/>
+      <c r="F136" s="41"/>
+      <c r="G136" s="41"/>
+      <c r="H136" s="41"/>
+      <c r="I136" s="41"/>
+      <c r="J136" s="41"/>
+      <c r="K136" s="41"/>
+      <c r="L136" s="41"/>
+      <c r="M136" s="41"/>
+      <c r="N136" s="41"/>
+      <c r="O136" s="41"/>
+    </row>
+    <row r="137">
+      <c r="B137" s="41"/>
+      <c r="C137" s="41"/>
+      <c r="D137" s="41"/>
+      <c r="E137" s="41"/>
+      <c r="F137" s="41"/>
+      <c r="G137" s="41"/>
+      <c r="H137" s="41"/>
+      <c r="I137" s="41"/>
+      <c r="J137" s="41"/>
+      <c r="K137" s="41"/>
+      <c r="L137" s="41"/>
+      <c r="M137" s="41"/>
+      <c r="N137" s="41"/>
+      <c r="O137" s="41"/>
+    </row>
+    <row r="138">
+      <c r="B138" s="41"/>
+      <c r="C138" s="41"/>
+      <c r="D138" s="41"/>
+      <c r="E138" s="41"/>
+      <c r="F138" s="41"/>
+      <c r="G138" s="41"/>
+      <c r="H138" s="41"/>
+      <c r="I138" s="41"/>
+      <c r="J138" s="41"/>
+      <c r="K138" s="41"/>
+      <c r="L138" s="41"/>
+      <c r="M138" s="41"/>
+      <c r="N138" s="41"/>
+      <c r="O138" s="41"/>
+    </row>
+    <row r="139">
+      <c r="B139" s="41"/>
+      <c r="C139" s="41"/>
+      <c r="D139" s="41"/>
+      <c r="E139" s="41"/>
+      <c r="F139" s="41"/>
+      <c r="G139" s="41"/>
+      <c r="H139" s="41"/>
+      <c r="I139" s="41"/>
+      <c r="J139" s="41"/>
+      <c r="K139" s="41"/>
+      <c r="L139" s="41"/>
+      <c r="M139" s="41"/>
+      <c r="N139" s="41"/>
+      <c r="O139" s="41"/>
+    </row>
+    <row r="140">
+      <c r="B140" s="41"/>
+      <c r="C140" s="41"/>
+      <c r="D140" s="41"/>
+      <c r="E140" s="41"/>
+      <c r="F140" s="41"/>
+      <c r="G140" s="41"/>
+      <c r="H140" s="41"/>
+      <c r="I140" s="41"/>
+      <c r="J140" s="41"/>
+      <c r="K140" s="41"/>
+      <c r="L140" s="41"/>
+      <c r="M140" s="41"/>
+      <c r="N140" s="41"/>
+      <c r="O140" s="41"/>
+    </row>
+    <row r="141">
+      <c r="B141" s="41"/>
+      <c r="C141" s="41"/>
+      <c r="D141" s="41"/>
+      <c r="E141" s="41"/>
+      <c r="F141" s="41"/>
+      <c r="G141" s="41"/>
+      <c r="H141" s="41"/>
+      <c r="I141" s="41"/>
+      <c r="J141" s="41"/>
+      <c r="K141" s="41"/>
+      <c r="L141" s="41"/>
+      <c r="M141" s="41"/>
+      <c r="N141" s="41"/>
+      <c r="O141" s="41"/>
+    </row>
   </sheetData>
-  <mergeCells count="19">
+  <mergeCells count="62">
     <mergeCell ref="K2:O2"/>
     <mergeCell ref="B2:H2"/>
     <mergeCell ref="B3:E3"/>
     <mergeCell ref="B8:O8"/>
-    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="I57:J57"/>
     <mergeCell ref="B5:D5"/>
     <mergeCell ref="E5:O5"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="I21:O21"/>
+    <mergeCell ref="G64:H64"/>
+    <mergeCell ref="I64:O64"/>
     <mergeCell ref="C10:G10"/>
     <mergeCell ref="C9:D9"/>
-    <mergeCell ref="B17:F17"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="B60:F60"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="D64:F64"/>
+    <mergeCell ref="I59:J59"/>
+    <mergeCell ref="I58:J58"/>
     <mergeCell ref="C11:G11"/>
     <mergeCell ref="C12:G12"/>
     <mergeCell ref="C13:G13"/>
+    <mergeCell ref="C14:G14"/>
+    <mergeCell ref="C15:G15"/>
+    <mergeCell ref="C16:G16"/>
+    <mergeCell ref="C17:G17"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="C22:G22"/>
+    <mergeCell ref="C23:G23"/>
+    <mergeCell ref="C24:G24"/>
+    <mergeCell ref="C25:G25"/>
+    <mergeCell ref="C26:G26"/>
+    <mergeCell ref="C27:G27"/>
+    <mergeCell ref="C28:G28"/>
+    <mergeCell ref="C29:G29"/>
+    <mergeCell ref="C30:G30"/>
+    <mergeCell ref="C31:G31"/>
+    <mergeCell ref="C32:G32"/>
+    <mergeCell ref="C33:G33"/>
+    <mergeCell ref="C34:G34"/>
+    <mergeCell ref="C35:G35"/>
+    <mergeCell ref="C36:G36"/>
+    <mergeCell ref="C37:G37"/>
+    <mergeCell ref="C38:G38"/>
+    <mergeCell ref="C39:G39"/>
+    <mergeCell ref="C40:G40"/>
+    <mergeCell ref="C41:G41"/>
+    <mergeCell ref="C42:G42"/>
+    <mergeCell ref="C43:G43"/>
+    <mergeCell ref="C44:G44"/>
+    <mergeCell ref="C45:G45"/>
+    <mergeCell ref="C46:G46"/>
+    <mergeCell ref="C47:G47"/>
+    <mergeCell ref="C48:G48"/>
+    <mergeCell ref="C49:G49"/>
+    <mergeCell ref="C50:G50"/>
+    <mergeCell ref="C51:G51"/>
+    <mergeCell ref="C52:G52"/>
+    <mergeCell ref="C53:G53"/>
+    <mergeCell ref="C54:G54"/>
+    <mergeCell ref="C55:G55"/>
+    <mergeCell ref="C56:G56"/>
   </mergeCells>
   <pageMargins left="0.5902778" right="0" top="0.39375" bottom="0.39375" header="0.5118055" footer="0.5118055"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/SP_Sklad/Rep/WayBill_In.xlsx
+++ b/SP_Sklad/Rep/WayBill_In.xlsx
@@ -9,7 +9,7 @@
     <sheet name="Накладна" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="range1">Накладна!$A$11:$O$12</definedName>
+    <definedName name="range1">Накладна!$A$11:$O$15</definedName>
     <definedName name="range2">#REF!</definedName>
   </definedNames>
   <calcPr/>
@@ -65,6 +65,18 @@
   </si>
   <si>
     <t>кг.</t>
+  </si>
+  <si>
+    <t>Каустична сода</t>
+  </si>
+  <si>
+    <t>Екохім-24. коністра 12 кг</t>
+  </si>
+  <si>
+    <t>шт.</t>
+  </si>
+  <si>
+    <t>Бланідас-Ц-ЦИП Мил 20 л. 24,8 кг.</t>
   </si>
   <si>
     <t>Всього без ПДВ</t>
@@ -1009,177 +1021,229 @@
       </c>
     </row>
     <row r="12" ht="12.75" customHeight="1">
-      <c r="B12" s="29"/>
-      <c r="C12" s="30"/>
-      <c r="D12" s="30"/>
-      <c r="E12" s="30"/>
-      <c r="F12" s="31"/>
-      <c r="G12" s="31"/>
-      <c r="H12" s="31"/>
-      <c r="I12" s="32" t="s">
+      <c r="B12" s="22">
+        <v>2</v>
+      </c>
+      <c r="C12" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="J12" s="32"/>
-      <c r="K12" s="33" t="e">
-        <f>SUM(K11)</f>
+      <c r="D12" s="24"/>
+      <c r="E12" s="24"/>
+      <c r="F12" s="24"/>
+      <c r="G12" s="25"/>
+      <c r="H12" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="I12" s="26">
+        <v>451</v>
+      </c>
+      <c r="J12" s="26">
+        <v>45</v>
+      </c>
+      <c r="K12" s="27" t="e">
+        <f>range1_DISCOUNTPRICE</f>
         <v>#NAME?</v>
       </c>
-      <c r="L12" s="33"/>
-      <c r="M12" s="33">
-        <f>SUM(M11)</f>
+      <c r="L12" s="27">
         <v>0</v>
       </c>
-      <c r="N12" s="33"/>
-      <c r="O12" s="33">
-        <f>SUM(O11)</f>
-        <v>5000</v>
+      <c r="M12" s="28">
+        <f>ROUND(O12*L12/100,2)</f>
+        <v>0</v>
+      </c>
+      <c r="N12" s="28"/>
+      <c r="O12" s="28">
+        <f>IF(N12&lt;&gt;1,ROUND(I12*J12,2),0)</f>
+        <v>20295</v>
       </c>
     </row>
     <row r="13" ht="12.75" customHeight="1">
-      <c r="B13" s="34"/>
-      <c r="D13" s="34"/>
-      <c r="E13" s="34"/>
-      <c r="F13" s="35"/>
-      <c r="G13" s="35"/>
-      <c r="H13" s="35"/>
-      <c r="I13" s="32" t="str">
+      <c r="B13" s="22">
+        <v>3</v>
+      </c>
+      <c r="C13" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="D13" s="24"/>
+      <c r="E13" s="24"/>
+      <c r="F13" s="24"/>
+      <c r="G13" s="25"/>
+      <c r="H13" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="I13" s="26">
+        <v>891.63779999999997</v>
+      </c>
+      <c r="J13" s="26">
+        <v>7</v>
+      </c>
+      <c r="K13" s="27" t="e">
+        <f>range1_DISCOUNTPRICE</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="L13" s="27">
+        <v>0</v>
+      </c>
+      <c r="M13" s="28">
+        <f>ROUND(O13*L13/100,2)</f>
+        <v>0</v>
+      </c>
+      <c r="N13" s="28"/>
+      <c r="O13" s="28">
+        <f>IF(N13&lt;&gt;1,ROUND(I13*J13,2),0)</f>
+        <v>6241.46</v>
+      </c>
+    </row>
+    <row r="14" ht="12.75" customHeight="1">
+      <c r="B14" s="22">
+        <v>4</v>
+      </c>
+      <c r="C14" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="D14" s="24"/>
+      <c r="E14" s="24"/>
+      <c r="F14" s="24"/>
+      <c r="G14" s="25"/>
+      <c r="H14" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="I14" s="26">
+        <v>0.1234</v>
+      </c>
+      <c r="J14" s="26">
+        <v>450</v>
+      </c>
+      <c r="K14" s="27" t="e">
+        <f>range1_DISCOUNTPRICE</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="L14" s="27">
+        <v>0</v>
+      </c>
+      <c r="M14" s="28">
+        <f>ROUND(O14*L14/100,2)</f>
+        <v>0</v>
+      </c>
+      <c r="N14" s="28"/>
+      <c r="O14" s="28">
+        <f>IF(N14&lt;&gt;1,ROUND(I14*J14,2),0)</f>
+        <v>55.530000000000001</v>
+      </c>
+    </row>
+    <row r="15" ht="12.75" customHeight="1">
+      <c r="B15" s="29"/>
+      <c r="C15" s="30"/>
+      <c r="D15" s="30"/>
+      <c r="E15" s="30"/>
+      <c r="F15" s="31"/>
+      <c r="G15" s="31"/>
+      <c r="H15" s="31"/>
+      <c r="I15" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="J15" s="32"/>
+      <c r="K15" s="33" t="e">
+        <f>SUM(K11:K14)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="L15" s="33"/>
+      <c r="M15" s="33">
+        <f>SUM(M11:M14)</f>
+        <v>0</v>
+      </c>
+      <c r="N15" s="33"/>
+      <c r="O15" s="33">
+        <f>SUM(O11:O14)</f>
+        <v>31591.989999999998</v>
+      </c>
+    </row>
+    <row r="16" ht="12.75" customHeight="1">
+      <c r="B16" s="34"/>
+      <c r="D16" s="34"/>
+      <c r="E16" s="34"/>
+      <c r="F16" s="35"/>
+      <c r="G16" s="35"/>
+      <c r="H16" s="35"/>
+      <c r="I16" s="32" t="str">
         <f>"Всього ПДВ "&amp;0&amp;"%"</f>
         <v>Всього ПДВ 0%</v>
       </c>
-      <c r="J13" s="32"/>
-      <c r="K13" s="36"/>
-      <c r="L13" s="36"/>
-      <c r="M13" s="36"/>
-      <c r="N13" s="36"/>
-      <c r="O13" s="37">
-        <f>M12</f>
+      <c r="J16" s="32"/>
+      <c r="K16" s="36"/>
+      <c r="L16" s="36"/>
+      <c r="M16" s="36"/>
+      <c r="N16" s="36"/>
+      <c r="O16" s="37">
+        <f>M15</f>
         <v>0</v>
       </c>
     </row>
-    <row r="14" ht="12.75" customHeight="1">
-      <c r="H14" s="34"/>
-      <c r="I14" s="32" t="s">
-        <v>17</v>
-      </c>
-      <c r="J14" s="32"/>
-      <c r="K14" s="36"/>
-      <c r="L14" s="36"/>
-      <c r="M14" s="36"/>
-      <c r="N14" s="36"/>
-      <c r="O14" s="38">
-        <f>O12+O13</f>
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="15" ht="12.75" customHeight="1">
-      <c r="B15" s="39"/>
-      <c r="C15" s="39"/>
-      <c r="D15" s="39"/>
-      <c r="E15" s="39"/>
-      <c r="F15" s="39"/>
-      <c r="G15" s="39"/>
-      <c r="H15" s="35"/>
-      <c r="I15" s="35"/>
-      <c r="J15" s="35"/>
-      <c r="K15" s="35"/>
-      <c r="L15" s="35"/>
-      <c r="M15" s="35"/>
-      <c r="N15" s="35"/>
-      <c r="O15" s="35"/>
-    </row>
-    <row r="16" ht="12.75" customHeight="1">
-      <c r="B16" s="39"/>
-      <c r="C16" s="39"/>
-      <c r="D16" s="39"/>
-      <c r="E16" s="39"/>
-      <c r="F16" s="39"/>
-      <c r="G16" s="39"/>
-      <c r="H16" s="35"/>
-      <c r="I16" s="35"/>
-      <c r="J16" s="35"/>
-      <c r="K16" s="35"/>
-      <c r="L16" s="35"/>
-      <c r="M16" s="35"/>
-      <c r="N16" s="35"/>
-      <c r="O16" s="35"/>
-    </row>
     <row r="17" ht="12.75" customHeight="1">
-      <c r="B17" s="39"/>
-      <c r="C17" s="39"/>
-      <c r="D17" s="39"/>
-      <c r="E17" s="39"/>
-      <c r="F17" s="39"/>
-      <c r="G17" s="39"/>
-      <c r="H17" s="35"/>
-      <c r="I17" s="35"/>
-      <c r="J17" s="35"/>
-      <c r="K17" s="35"/>
-      <c r="L17" s="35"/>
-      <c r="M17" s="35"/>
-      <c r="N17" s="35"/>
-      <c r="O17" s="35"/>
+      <c r="H17" s="34"/>
+      <c r="I17" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="J17" s="32"/>
+      <c r="K17" s="36"/>
+      <c r="L17" s="36"/>
+      <c r="M17" s="36"/>
+      <c r="N17" s="36"/>
+      <c r="O17" s="38">
+        <f>O15+O16</f>
+        <v>31591.989999999998</v>
+      </c>
     </row>
     <row r="18" ht="12.75" customHeight="1">
-      <c r="A18" s="40"/>
-      <c r="B18" s="41"/>
-      <c r="C18" s="41"/>
-      <c r="D18" s="41"/>
-      <c r="E18" s="41"/>
-      <c r="F18" s="41"/>
-      <c r="G18" s="41"/>
-      <c r="H18" s="41"/>
-      <c r="I18" s="41"/>
-      <c r="J18" s="41"/>
-      <c r="K18" s="41"/>
-      <c r="L18" s="41"/>
-      <c r="M18" s="41"/>
-      <c r="N18" s="41"/>
-      <c r="O18" s="41"/>
+      <c r="B18" s="39"/>
+      <c r="C18" s="39"/>
+      <c r="D18" s="39"/>
+      <c r="E18" s="39"/>
+      <c r="F18" s="39"/>
+      <c r="G18" s="39"/>
+      <c r="H18" s="35"/>
+      <c r="I18" s="35"/>
+      <c r="J18" s="35"/>
+      <c r="K18" s="35"/>
+      <c r="L18" s="35"/>
+      <c r="M18" s="35"/>
+      <c r="N18" s="35"/>
+      <c r="O18" s="35"/>
     </row>
     <row r="19" ht="12.75" customHeight="1">
-      <c r="A19" s="40"/>
-      <c r="B19" s="42" t="s">
-        <v>18</v>
-      </c>
-      <c r="C19" s="42"/>
-      <c r="D19" s="43" t="str">
-        <f>IF(1 &lt; 0,"Дорогин А."," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="E19" s="43"/>
-      <c r="F19" s="43"/>
-      <c r="G19" s="42" t="s">
-        <v>19</v>
-      </c>
-      <c r="H19" s="42"/>
-      <c r="I19" s="43" t="str">
-        <f>IF(1 &gt; 0,"Дорогин А."," ")</f>
-        <v>Дорогин А.</v>
-      </c>
-      <c r="J19" s="43"/>
-      <c r="K19" s="43"/>
-      <c r="L19" s="43"/>
-      <c r="M19" s="43"/>
-      <c r="N19" s="43"/>
-      <c r="O19" s="43"/>
+      <c r="B19" s="39"/>
+      <c r="C19" s="39"/>
+      <c r="D19" s="39"/>
+      <c r="E19" s="39"/>
+      <c r="F19" s="39"/>
+      <c r="G19" s="39"/>
+      <c r="H19" s="35"/>
+      <c r="I19" s="35"/>
+      <c r="J19" s="35"/>
+      <c r="K19" s="35"/>
+      <c r="L19" s="35"/>
+      <c r="M19" s="35"/>
+      <c r="N19" s="35"/>
+      <c r="O19" s="35"/>
     </row>
     <row r="20" ht="12.75" customHeight="1">
-      <c r="B20" s="41"/>
-      <c r="C20" s="41"/>
-      <c r="D20" s="41"/>
-      <c r="E20" s="41"/>
-      <c r="F20" s="41"/>
-      <c r="G20" s="41"/>
-      <c r="H20" s="41"/>
-      <c r="I20" s="41"/>
-      <c r="J20" s="41"/>
-      <c r="K20" s="41"/>
-      <c r="L20" s="41"/>
-      <c r="M20" s="41"/>
-      <c r="N20" s="41"/>
-      <c r="O20" s="41"/>
+      <c r="B20" s="39"/>
+      <c r="C20" s="39"/>
+      <c r="D20" s="39"/>
+      <c r="E20" s="39"/>
+      <c r="F20" s="39"/>
+      <c r="G20" s="39"/>
+      <c r="H20" s="35"/>
+      <c r="I20" s="35"/>
+      <c r="J20" s="35"/>
+      <c r="K20" s="35"/>
+      <c r="L20" s="35"/>
+      <c r="M20" s="35"/>
+      <c r="N20" s="35"/>
+      <c r="O20" s="35"/>
     </row>
     <row r="21" ht="12.75" customHeight="1">
+      <c r="A21" s="40"/>
       <c r="B21" s="41"/>
       <c r="C21" s="41"/>
       <c r="D21" s="41"/>
@@ -1196,20 +1260,31 @@
       <c r="O21" s="41"/>
     </row>
     <row r="22" ht="12.75" customHeight="1">
-      <c r="B22" s="41"/>
-      <c r="C22" s="41"/>
-      <c r="D22" s="41"/>
-      <c r="E22" s="41"/>
-      <c r="F22" s="41"/>
-      <c r="G22" s="41"/>
-      <c r="H22" s="41"/>
-      <c r="I22" s="41"/>
-      <c r="J22" s="41"/>
-      <c r="K22" s="41"/>
-      <c r="L22" s="41"/>
-      <c r="M22" s="41"/>
-      <c r="N22" s="41"/>
-      <c r="O22" s="41"/>
+      <c r="A22" s="40"/>
+      <c r="B22" s="42" t="s">
+        <v>22</v>
+      </c>
+      <c r="C22" s="42"/>
+      <c r="D22" s="43" t="str">
+        <f>IF(1 &lt; 0,"Дорогин А."," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="E22" s="43"/>
+      <c r="F22" s="43"/>
+      <c r="G22" s="42" t="s">
+        <v>23</v>
+      </c>
+      <c r="H22" s="42"/>
+      <c r="I22" s="43" t="str">
+        <f>IF(1 &gt; 0,"Дорогин А."," ")</f>
+        <v>Дорогин А.</v>
+      </c>
+      <c r="J22" s="43"/>
+      <c r="K22" s="43"/>
+      <c r="L22" s="43"/>
+      <c r="M22" s="43"/>
+      <c r="N22" s="43"/>
+      <c r="O22" s="43"/>
     </row>
     <row r="23" ht="12.75" customHeight="1">
       <c r="B23" s="41"/>
@@ -1499,7 +1574,7 @@
       <c r="N40" s="41"/>
       <c r="O40" s="41"/>
     </row>
-    <row r="41">
+    <row r="41" ht="12.75" customHeight="1">
       <c r="B41" s="41"/>
       <c r="C41" s="41"/>
       <c r="D41" s="41"/>
@@ -1515,7 +1590,7 @@
       <c r="N41" s="41"/>
       <c r="O41" s="41"/>
     </row>
-    <row r="42">
+    <row r="42" ht="12.75" customHeight="1">
       <c r="B42" s="41"/>
       <c r="C42" s="41"/>
       <c r="D42" s="41"/>
@@ -1531,7 +1606,7 @@
       <c r="N42" s="41"/>
       <c r="O42" s="41"/>
     </row>
-    <row r="43">
+    <row r="43" ht="12.75" customHeight="1">
       <c r="B43" s="41"/>
       <c r="C43" s="41"/>
       <c r="D43" s="41"/>
@@ -2395,25 +2470,76 @@
       <c r="N96" s="41"/>
       <c r="O96" s="41"/>
     </row>
+    <row r="97">
+      <c r="B97" s="41"/>
+      <c r="C97" s="41"/>
+      <c r="D97" s="41"/>
+      <c r="E97" s="41"/>
+      <c r="F97" s="41"/>
+      <c r="G97" s="41"/>
+      <c r="H97" s="41"/>
+      <c r="I97" s="41"/>
+      <c r="J97" s="41"/>
+      <c r="K97" s="41"/>
+      <c r="L97" s="41"/>
+      <c r="M97" s="41"/>
+      <c r="N97" s="41"/>
+      <c r="O97" s="41"/>
+    </row>
+    <row r="98">
+      <c r="B98" s="41"/>
+      <c r="C98" s="41"/>
+      <c r="D98" s="41"/>
+      <c r="E98" s="41"/>
+      <c r="F98" s="41"/>
+      <c r="G98" s="41"/>
+      <c r="H98" s="41"/>
+      <c r="I98" s="41"/>
+      <c r="J98" s="41"/>
+      <c r="K98" s="41"/>
+      <c r="L98" s="41"/>
+      <c r="M98" s="41"/>
+      <c r="N98" s="41"/>
+      <c r="O98" s="41"/>
+    </row>
+    <row r="99">
+      <c r="B99" s="41"/>
+      <c r="C99" s="41"/>
+      <c r="D99" s="41"/>
+      <c r="E99" s="41"/>
+      <c r="F99" s="41"/>
+      <c r="G99" s="41"/>
+      <c r="H99" s="41"/>
+      <c r="I99" s="41"/>
+      <c r="J99" s="41"/>
+      <c r="K99" s="41"/>
+      <c r="L99" s="41"/>
+      <c r="M99" s="41"/>
+      <c r="N99" s="41"/>
+      <c r="O99" s="41"/>
+    </row>
   </sheetData>
-  <mergeCells count="17">
+  <mergeCells count="20">
     <mergeCell ref="K2:O2"/>
     <mergeCell ref="B2:H2"/>
     <mergeCell ref="B3:E3"/>
     <mergeCell ref="B8:O8"/>
-    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="I15:J15"/>
     <mergeCell ref="B5:D5"/>
     <mergeCell ref="E5:O5"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="I19:O19"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="I22:O22"/>
     <mergeCell ref="C10:G10"/>
     <mergeCell ref="C9:D9"/>
-    <mergeCell ref="B15:F15"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="B18:F18"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="I16:J16"/>
     <mergeCell ref="C11:G11"/>
+    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="C13:G13"/>
+    <mergeCell ref="C14:G14"/>
   </mergeCells>
   <pageMargins left="0.5902778" right="0" top="0.39375" bottom="0.39375" header="0.5118055" footer="0.5118055"/>
   <pageSetup paperSize="9" orientation="portrait"/>
